--- a/AAII_Financials/Quarterly/OTIS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OTIS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="92">
   <si>
     <t>OTIS</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,40 +665,44 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="G7" s="2">
+        <v>43646</v>
+      </c>
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -708,26 +712,29 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>3029000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2966000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
+        <v>13118000</v>
+      </c>
+      <c r="G8" s="3">
+        <v>3351000</v>
+      </c>
+      <c r="H8" s="3">
         <v>3101000</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
       </c>
@@ -737,26 +744,29 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>2138000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2069000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
+        <v>9292000</v>
+      </c>
+      <c r="G9" s="3">
+        <v>2367000</v>
+      </c>
+      <c r="H9" s="3">
         <v>2200000</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
       </c>
@@ -766,26 +776,29 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>891000</v>
+      </c>
+      <c r="E10" s="3">
         <v>897000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
+        <v>3826000</v>
+      </c>
+      <c r="G10" s="3">
+        <v>984000</v>
+      </c>
+      <c r="H10" s="3">
         <v>901000</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
       </c>
@@ -795,8 +808,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -808,26 +824,27 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>37000</v>
+      </c>
+      <c r="E12" s="3">
         <v>38000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
+        <v>163000</v>
+      </c>
+      <c r="G12" s="3">
+        <v>40000</v>
+      </c>
+      <c r="H12" s="3">
         <v>39000</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
       </c>
@@ -837,8 +854,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -866,26 +886,29 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E14" s="3">
         <v>6000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
+        <v>35000</v>
+      </c>
+      <c r="G14" s="3">
+        <v>7000</v>
+      </c>
+      <c r="H14" s="3">
         <v>17000</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
@@ -895,8 +918,11 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -924,8 +950,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -934,26 +963,27 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2613000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2637000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
+        <v>11304000</v>
+      </c>
+      <c r="G17" s="3">
+        <v>2870000</v>
+      </c>
+      <c r="H17" s="3">
         <v>2686000</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
       </c>
@@ -963,26 +993,29 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>416000</v>
+      </c>
+      <c r="E18" s="3">
         <v>329000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
+        <v>1814000</v>
+      </c>
+      <c r="G18" s="3">
+        <v>481000</v>
+      </c>
+      <c r="H18" s="3">
         <v>415000</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
@@ -992,8 +1025,11 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1005,26 +1041,27 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E20" s="3">
         <v>3000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
+        <v>47000</v>
+      </c>
+      <c r="G20" s="3">
+        <v>14000</v>
+      </c>
+      <c r="H20" s="3">
         <v>11000</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1034,26 +1071,29 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>464000</v>
+      </c>
+      <c r="E21" s="3">
         <v>375000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3">
         <v>471000</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1063,26 +1103,29 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>41000</v>
+      </c>
+      <c r="E22" s="3">
         <v>5000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3">
         <v>1000</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1092,26 +1135,29 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>374000</v>
+      </c>
+      <c r="E23" s="3">
         <v>327000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
+        <v>1861000</v>
+      </c>
+      <c r="G23" s="3">
+        <v>495000</v>
+      </c>
+      <c r="H23" s="3">
         <v>425000</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1121,25 +1167,28 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>125000</v>
+        <v>109000</v>
       </c>
       <c r="E24" s="3">
         <v>125000</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
+      <c r="F24" s="3">
+        <v>594000</v>
+      </c>
+      <c r="G24" s="3">
+        <v>143000</v>
+      </c>
+      <c r="H24" s="3">
+        <v>125000</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1150,8 +1199,11 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1179,26 +1231,29 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>265000</v>
+      </c>
+      <c r="E26" s="3">
         <v>202000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
+        <v>1267000</v>
+      </c>
+      <c r="G26" s="3">
+        <v>352000</v>
+      </c>
+      <c r="H26" s="3">
         <v>300000</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1208,26 +1263,29 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>224000</v>
+      </c>
+      <c r="E27" s="3">
         <v>165000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
+        <v>1116000</v>
+      </c>
+      <c r="G27" s="3">
+        <v>308000</v>
+      </c>
+      <c r="H27" s="3">
         <v>273000</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1237,8 +1295,11 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1266,8 +1327,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1295,8 +1359,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1324,8 +1391,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1353,26 +1423,29 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
+        <v>-47000</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="H32" s="3">
         <v>-11000</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1382,26 +1455,29 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>224000</v>
+      </c>
+      <c r="E33" s="3">
         <v>165000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
+        <v>1116000</v>
+      </c>
+      <c r="G33" s="3">
+        <v>308000</v>
+      </c>
+      <c r="H33" s="3">
         <v>273000</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1411,8 +1487,11 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1440,26 +1519,29 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>224000</v>
+      </c>
+      <c r="E35" s="3">
         <v>165000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
+        <v>1116000</v>
+      </c>
+      <c r="G35" s="3">
+        <v>308000</v>
+      </c>
+      <c r="H35" s="3">
         <v>273000</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1469,31 +1551,34 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="G38" s="2">
+        <v>43646</v>
+      </c>
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1503,8 +1588,11 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1516,8 +1604,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1529,17 +1618,18 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1912000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1207000</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1558,8 +1648,11 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1587,17 +1680,20 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3349000</v>
+      </c>
+      <c r="E43" s="3">
         <v>3379000</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1616,17 +1712,20 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>629000</v>
+      </c>
+      <c r="E44" s="3">
         <v>599000</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1645,17 +1744,20 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>502000</v>
+      </c>
+      <c r="E45" s="3">
         <v>329000</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1674,17 +1776,20 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6392000</v>
+      </c>
+      <c r="E46" s="3">
         <v>5514000</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1703,17 +1808,20 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>427000</v>
+      </c>
+      <c r="E47" s="3">
         <v>428000</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1732,17 +1840,20 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1234000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1223000</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1761,17 +1872,20 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2097000</v>
+      </c>
+      <c r="E49" s="3">
         <v>2070000</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1790,8 +1904,11 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1819,8 +1936,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1848,17 +1968,20 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>291000</v>
+      </c>
+      <c r="E52" s="3">
         <v>289000</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1877,8 +2000,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1906,17 +2032,20 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10441000</v>
+      </c>
+      <c r="E54" s="3">
         <v>9524000</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1935,8 +2064,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1948,8 +2080,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1961,17 +2094,18 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1349000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1102000</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1990,17 +2124,20 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>33000</v>
+      </c>
+      <c r="E58" s="3">
         <v>67000</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2019,17 +2156,20 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4380000</v>
+      </c>
+      <c r="E59" s="3">
         <v>4186000</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2048,17 +2188,20 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5762000</v>
+      </c>
+      <c r="E60" s="3">
         <v>5355000</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2077,17 +2220,20 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6260000</v>
+      </c>
+      <c r="E61" s="3">
         <v>6258000</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -2106,17 +2252,20 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1995000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2100000</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2135,8 +2284,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2164,8 +2316,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2193,8 +2348,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2222,17 +2380,20 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>14683000</v>
+      </c>
+      <c r="E66" s="3">
         <v>14345000</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2251,8 +2412,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2264,8 +2428,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2293,8 +2458,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2322,8 +2490,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2351,8 +2522,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2380,8 +2554,11 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2409,8 +2586,11 @@
       <c r="K72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2438,8 +2618,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2467,8 +2650,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2496,17 +2682,20 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-4242000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-4821000</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2525,8 +2714,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2554,31 +2746,34 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="G80" s="2">
+        <v>43646</v>
+      </c>
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="F80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2588,26 +2783,29 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>224000</v>
+      </c>
+      <c r="E81" s="3">
         <v>165000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
+        <v>1116000</v>
+      </c>
+      <c r="G81" s="3">
+        <v>308000</v>
+      </c>
+      <c r="H81" s="3">
         <v>273000</v>
       </c>
-      <c r="F81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2617,8 +2815,11 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2630,17 +2831,18 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>49000</v>
+      </c>
+      <c r="E83" s="3">
         <v>43000</v>
       </c>
-      <c r="E83" s="3">
-        <v>45000</v>
-      </c>
       <c r="F83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2659,8 +2861,11 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2688,8 +2893,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2717,8 +2925,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2746,8 +2957,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2775,8 +2989,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2804,17 +3021,20 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>664000</v>
+      </c>
+      <c r="E89" s="3">
         <v>159000</v>
       </c>
-      <c r="E89" s="3">
-        <v>297000</v>
-      </c>
       <c r="F89" s="3" t="s">
         <v>3</v>
       </c>
@@ -2833,8 +3053,11 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2846,17 +3069,18 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-36000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-39000</v>
       </c>
-      <c r="E91" s="3">
-        <v>-28000</v>
-      </c>
       <c r="F91" s="3" t="s">
         <v>3</v>
       </c>
@@ -2875,8 +3099,11 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2904,8 +3131,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2933,17 +3163,20 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-50000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-92000</v>
       </c>
-      <c r="E94" s="3">
-        <v>-18000</v>
-      </c>
       <c r="F94" s="3" t="s">
         <v>3</v>
       </c>
@@ -2962,8 +3195,11 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2975,8 +3211,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3004,8 +3241,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3033,8 +3273,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3062,8 +3305,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3091,17 +3337,20 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>76000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-256000</v>
       </c>
-      <c r="E100" s="3">
-        <v>-312000</v>
-      </c>
       <c r="F100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3120,17 +3369,20 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-50000</v>
       </c>
-      <c r="E101" s="3">
-        <v>20000</v>
-      </c>
       <c r="F101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3149,17 +3401,20 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>707000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-239000</v>
       </c>
-      <c r="E102" s="3">
-        <v>-13000</v>
-      </c>
       <c r="F102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3176,6 +3431,9 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OTIS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OTIS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="92">
   <si>
     <t>OTIS</t>
   </si>
@@ -667,10 +667,10 @@
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -698,13 +698,13 @@
         <v>43830</v>
       </c>
       <c r="G7" s="2">
+        <v>43738</v>
+      </c>
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
@@ -730,13 +730,13 @@
         <v>13118000</v>
       </c>
       <c r="G8" s="3">
+        <v>3313000</v>
+      </c>
+      <c r="H8" s="3">
         <v>3351000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3101000</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -762,13 +762,13 @@
         <v>9292000</v>
       </c>
       <c r="G9" s="3">
+        <v>2338000</v>
+      </c>
+      <c r="H9" s="3">
         <v>2367000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2200000</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -794,13 +794,13 @@
         <v>3826000</v>
       </c>
       <c r="G10" s="3">
+        <v>975000</v>
+      </c>
+      <c r="H10" s="3">
         <v>984000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>901000</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -840,13 +840,13 @@
         <v>163000</v>
       </c>
       <c r="G12" s="3">
+        <v>39000</v>
+      </c>
+      <c r="H12" s="3">
         <v>40000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>39000</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
@@ -895,22 +895,22 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>10000</v>
+        <v>29000</v>
       </c>
       <c r="E14" s="3">
-        <v>6000</v>
+        <v>38000</v>
       </c>
       <c r="F14" s="3">
         <v>35000</v>
       </c>
-      <c r="G14" s="3">
-        <v>7000</v>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H14" s="3">
+        <v>26000</v>
+      </c>
+      <c r="I14" s="3">
         <v>17000</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
@@ -979,13 +979,13 @@
         <v>11304000</v>
       </c>
       <c r="G17" s="3">
+        <v>2831000</v>
+      </c>
+      <c r="H17" s="3">
         <v>2870000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2686000</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1011,13 +1011,13 @@
         <v>1814000</v>
       </c>
       <c r="G18" s="3">
+        <v>482000</v>
+      </c>
+      <c r="H18" s="3">
         <v>481000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>415000</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1048,22 +1048,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1000</v>
+        <v>-42000</v>
       </c>
       <c r="E20" s="3">
-        <v>3000</v>
+        <v>-2000</v>
       </c>
       <c r="F20" s="3">
         <v>47000</v>
       </c>
       <c r="G20" s="3">
+        <v>22000</v>
+      </c>
+      <c r="H20" s="3">
         <v>14000</v>
       </c>
-      <c r="H20" s="3">
-        <v>11000</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
+      <c r="I20" s="3">
+        <v>10000</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1080,22 +1080,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>464000</v>
+        <v>423000</v>
       </c>
       <c r="E21" s="3">
-        <v>375000</v>
+        <v>370000</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3">
-        <v>471000</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
+      <c r="G21" s="3">
+        <v>548000</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="3">
+        <v>470000</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1112,25 +1112,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>41000</v>
+        <v>0</v>
       </c>
       <c r="E22" s="3">
-        <v>5000</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
       </c>
       <c r="H22" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
@@ -1153,13 +1153,13 @@
         <v>1861000</v>
       </c>
       <c r="G23" s="3">
+        <v>504000</v>
+      </c>
+      <c r="H23" s="3">
         <v>495000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>425000</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1188,10 +1188,10 @@
         <v>143000</v>
       </c>
       <c r="H24" s="3">
+        <v>143000</v>
+      </c>
+      <c r="I24" s="3">
         <v>125000</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
@@ -1249,13 +1249,13 @@
         <v>1267000</v>
       </c>
       <c r="G26" s="3">
+        <v>361000</v>
+      </c>
+      <c r="H26" s="3">
         <v>352000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>300000</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1281,13 +1281,13 @@
         <v>1116000</v>
       </c>
       <c r="G27" s="3">
+        <v>317000</v>
+      </c>
+      <c r="H27" s="3">
         <v>308000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>273000</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1432,22 +1432,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1000</v>
+        <v>42000</v>
       </c>
       <c r="E32" s="3">
-        <v>-3000</v>
+        <v>2000</v>
       </c>
       <c r="F32" s="3">
         <v>-47000</v>
       </c>
       <c r="G32" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="H32" s="3">
         <v>-14000</v>
       </c>
-      <c r="H32" s="3">
-        <v>-11000</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
+      <c r="I32" s="3">
+        <v>-10000</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1473,13 +1473,13 @@
         <v>1116000</v>
       </c>
       <c r="G33" s="3">
+        <v>317000</v>
+      </c>
+      <c r="H33" s="3">
         <v>308000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>273000</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1537,13 +1537,13 @@
         <v>1116000</v>
       </c>
       <c r="G35" s="3">
+        <v>317000</v>
+      </c>
+      <c r="H35" s="3">
         <v>308000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>273000</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1574,13 +1574,13 @@
         <v>43830</v>
       </c>
       <c r="G38" s="2">
+        <v>43738</v>
+      </c>
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
@@ -2563,25 +2563,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>0</v>
-      </c>
-      <c r="E72" s="3">
-        <v>0</v>
-      </c>
-      <c r="F72" s="3">
-        <v>0</v>
-      </c>
-      <c r="G72" s="3">
-        <v>0</v>
-      </c>
-      <c r="H72" s="3">
-        <v>0</v>
-      </c>
-      <c r="I72" s="3">
-        <v>0</v>
-      </c>
-      <c r="J72" s="3">
-        <v>0</v>
+        <v>-3418000</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K72" s="3">
         <v>0</v>
@@ -2769,13 +2769,13 @@
         <v>43830</v>
       </c>
       <c r="G80" s="2">
+        <v>43738</v>
+      </c>
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
@@ -2801,13 +2801,13 @@
         <v>1116000</v>
       </c>
       <c r="G81" s="3">
+        <v>317000</v>
+      </c>
+      <c r="H81" s="3">
         <v>308000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>273000</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2846,8 +2846,8 @@
       <c r="F83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
+      <c r="G83" s="3">
+        <v>44000</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -3038,8 +3038,8 @@
       <c r="F89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
+      <c r="G89" s="3">
+        <v>364000</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -3084,8 +3084,8 @@
       <c r="F91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
+      <c r="G91" s="3">
+        <v>-35000</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -3180,8 +3180,8 @@
       <c r="F94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
+      <c r="G94" s="3">
+        <v>-58000</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3354,8 +3354,8 @@
       <c r="F100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
+      <c r="G100" s="3">
+        <v>-341000</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3386,8 +3386,8 @@
       <c r="F101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
+      <c r="G101" s="3">
+        <v>-45000</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
@@ -3418,8 +3418,8 @@
       <c r="F102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
+      <c r="G102" s="3">
+        <v>-80000</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Quarterly/OTIS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OTIS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="92">
   <si>
     <t>OTIS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,154 +665,179 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
-        <v>43738</v>
-      </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
+      <c r="K7" s="2">
+        <v>43555</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>3493000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3268000</v>
+      </c>
+      <c r="F8" s="3">
         <v>3029000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>2966000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>13118000</v>
       </c>
-      <c r="G8" s="3">
-        <v>3313000</v>
-      </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3351000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3101000</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
+      <c r="K8" s="3">
+        <v>3101000</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>2481000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2289000</v>
+      </c>
+      <c r="F9" s="3">
         <v>2138000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>2069000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>9292000</v>
       </c>
-      <c r="G9" s="3">
-        <v>2338000</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2367000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2200000</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
+      <c r="K9" s="3">
+        <v>2200000</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1012000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>979000</v>
+      </c>
+      <c r="F10" s="3">
         <v>891000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>897000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>3826000</v>
       </c>
-      <c r="G10" s="3">
-        <v>975000</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>984000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>901000</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
+      <c r="K10" s="3">
+        <v>901000</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -825,40 +850,48 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>40000</v>
+      </c>
+      <c r="E12" s="3">
         <v>37000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
+        <v>37000</v>
+      </c>
+      <c r="G12" s="3">
         <v>38000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>163000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
+        <v>40000</v>
+      </c>
+      <c r="J12" s="3">
         <v>39000</v>
       </c>
-      <c r="H12" s="3">
-        <v>40000</v>
-      </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>39000</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -889,40 +922,52 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>65000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>40000</v>
+      </c>
+      <c r="F14" s="3">
         <v>29000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>38000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>35000</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>26000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>17000</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
+      <c r="K14" s="3">
+        <v>17000</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -953,8 +998,14 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -964,72 +1015,86 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3053000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2814000</v>
+      </c>
+      <c r="F17" s="3">
         <v>2613000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2637000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>11304000</v>
       </c>
-      <c r="G17" s="3">
-        <v>2831000</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2870000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2686000</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
+      <c r="K17" s="3">
+        <v>2686000</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>440000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>454000</v>
+      </c>
+      <c r="F18" s="3">
         <v>416000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>329000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>1814000</v>
       </c>
-      <c r="G18" s="3">
-        <v>482000</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>481000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>415000</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
+      <c r="K18" s="3">
+        <v>415000</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1042,72 +1107,86 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-43000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-41000</v>
+      </c>
+      <c r="F20" s="3">
         <v>-42000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-2000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>47000</v>
       </c>
-      <c r="G20" s="3">
-        <v>22000</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>14000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>10000</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
+      <c r="K20" s="3">
+        <v>10000</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>448000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>461000</v>
+      </c>
+      <c r="F21" s="3">
         <v>423000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>370000</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="3">
-        <v>548000</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3">
         <v>470000</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
+      <c r="K21" s="3">
+        <v>470000</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1132,78 +1211,96 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>397000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>413000</v>
+      </c>
+      <c r="F23" s="3">
         <v>374000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>327000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>1861000</v>
       </c>
-      <c r="G23" s="3">
-        <v>504000</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>495000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>425000</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
+      <c r="K23" s="3">
+        <v>425000</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>118000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>103000</v>
+      </c>
+      <c r="F24" s="3">
         <v>109000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>125000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>594000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>143000</v>
       </c>
-      <c r="H24" s="3">
-        <v>143000</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>125000</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
+      <c r="K24" s="3">
+        <v>125000</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1234,72 +1331,90 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>279000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>310000</v>
+      </c>
+      <c r="F26" s="3">
         <v>265000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>202000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>1267000</v>
       </c>
-      <c r="G26" s="3">
-        <v>361000</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>352000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>300000</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
+      <c r="K26" s="3">
+        <v>300000</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>251000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>266000</v>
+      </c>
+      <c r="F27" s="3">
         <v>224000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>165000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>1116000</v>
       </c>
-      <c r="G27" s="3">
-        <v>317000</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>308000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>273000</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
+      <c r="K27" s="3">
+        <v>273000</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1330,8 +1445,14 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1362,8 +1483,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1394,8 +1521,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1426,72 +1559,90 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>43000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>41000</v>
+      </c>
+      <c r="F32" s="3">
         <v>42000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>2000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-47000</v>
       </c>
-      <c r="G32" s="3">
-        <v>-22000</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-14000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-10000</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
+      <c r="K32" s="3">
+        <v>-10000</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>251000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>266000</v>
+      </c>
+      <c r="F33" s="3">
         <v>224000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>165000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>1116000</v>
       </c>
-      <c r="G33" s="3">
-        <v>317000</v>
-      </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>308000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>273000</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
+      <c r="K33" s="3">
+        <v>273000</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1522,77 +1673,95 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>251000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>266000</v>
+      </c>
+      <c r="F35" s="3">
         <v>224000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>165000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>1116000</v>
       </c>
-      <c r="G35" s="3">
-        <v>317000</v>
-      </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>308000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>273000</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
+      <c r="K35" s="3">
+        <v>273000</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
-        <v>43738</v>
-      </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
+      <c r="K38" s="2">
+        <v>43555</v>
       </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1605,8 +1774,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1619,23 +1790,25 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1782000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1733000</v>
+      </c>
+      <c r="F41" s="3">
         <v>1912000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1207000</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1651,8 +1824,14 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1683,23 +1862,29 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3606000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>3439000</v>
+      </c>
+      <c r="F43" s="3">
         <v>3349000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>3379000</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1715,23 +1900,29 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>659000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>667000</v>
+      </c>
+      <c r="F44" s="3">
         <v>629000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>599000</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1747,23 +1938,29 @@
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>446000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>432000</v>
+      </c>
+      <c r="F45" s="3">
         <v>502000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>329000</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1779,23 +1976,29 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6493000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>6271000</v>
+      </c>
+      <c r="F46" s="3">
         <v>6392000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>5514000</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1811,23 +2014,29 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>334000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>456000</v>
+      </c>
+      <c r="F47" s="3">
         <v>427000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>428000</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1843,23 +2052,29 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1316000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1269000</v>
+      </c>
+      <c r="F48" s="3">
         <v>1234000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1223000</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1875,23 +2090,29 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2257000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>2189000</v>
+      </c>
+      <c r="F49" s="3">
         <v>2097000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>2070000</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1907,8 +2128,14 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1939,8 +2166,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1971,23 +2204,29 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>310000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>288000</v>
+      </c>
+      <c r="F52" s="3">
         <v>291000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>289000</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2003,8 +2242,14 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2035,23 +2280,29 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10710000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>10473000</v>
+      </c>
+      <c r="F54" s="3">
         <v>10441000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>9524000</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2067,8 +2318,14 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2081,8 +2338,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2095,23 +2354,25 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1453000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1392000</v>
+      </c>
+      <c r="F57" s="3">
         <v>1349000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1102000</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2127,23 +2388,29 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>701000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>538000</v>
+      </c>
+      <c r="F58" s="3">
         <v>33000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>67000</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2159,23 +2426,29 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4519000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>4361000</v>
+      </c>
+      <c r="F59" s="3">
         <v>4380000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>4186000</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2191,23 +2464,29 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6673000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>6291000</v>
+      </c>
+      <c r="F60" s="3">
         <v>5762000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>5355000</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2223,23 +2502,29 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5262000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>5512000</v>
+      </c>
+      <c r="F61" s="3">
         <v>6260000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>6258000</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2255,23 +2540,29 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1976000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2053000</v>
+      </c>
+      <c r="F62" s="3">
         <v>1995000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>2100000</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2287,8 +2578,14 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2319,8 +2616,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2351,8 +2654,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2383,23 +2692,29 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>14542000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>14497000</v>
+      </c>
+      <c r="F66" s="3">
         <v>14683000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>14345000</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2415,8 +2730,14 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2429,8 +2750,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2461,8 +2784,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2493,8 +2822,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2525,8 +2860,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2557,20 +2898,26 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3076000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-3241000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-3418000</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2583,14 +2930,20 @@
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="3">
-        <v>0</v>
-      </c>
-      <c r="L72" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3">
+        <v>0</v>
+      </c>
+      <c r="N72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2621,8 +2974,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2653,8 +3012,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2685,23 +3050,29 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3832000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-4024000</v>
+      </c>
+      <c r="F76" s="3">
         <v>-4242000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-4821000</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2717,8 +3088,14 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2749,77 +3126,95 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
-        <v>43738</v>
-      </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
+      <c r="K80" s="2">
+        <v>43555</v>
       </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>251000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>266000</v>
+      </c>
+      <c r="F81" s="3">
         <v>224000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>165000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>1116000</v>
       </c>
-      <c r="G81" s="3">
-        <v>317000</v>
-      </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>308000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>273000</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
+      <c r="K81" s="3">
+        <v>273000</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2832,23 +3227,25 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>51000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>48000</v>
+      </c>
+      <c r="F83" s="3">
         <v>49000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>43000</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G83" s="3">
-        <v>44000</v>
-      </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2864,8 +3261,14 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2896,8 +3299,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2928,8 +3337,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2960,8 +3375,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2992,8 +3413,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3024,23 +3451,29 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>309000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>348000</v>
+      </c>
+      <c r="F89" s="3">
         <v>664000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>159000</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G89" s="3">
-        <v>364000</v>
-      </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3056,8 +3489,14 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3070,23 +3509,25 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-71000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-37000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-36000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-39000</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-35000</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3102,8 +3543,14 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3134,8 +3581,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3166,23 +3619,29 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-64000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-147000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-50000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-92000</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-58000</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3198,8 +3657,14 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3212,16 +3677,18 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-87000</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-86000</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -3244,8 +3711,14 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3276,8 +3749,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3308,8 +3787,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3340,23 +3825,29 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-255000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-409000</v>
+      </c>
+      <c r="F100" s="3">
         <v>76000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-256000</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-341000</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3372,23 +3863,29 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>59000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>33000</v>
+      </c>
+      <c r="F101" s="3">
         <v>17000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-50000</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-45000</v>
-      </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3404,23 +3901,29 @@
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>49000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-175000</v>
+      </c>
+      <c r="F102" s="3">
         <v>707000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-239000</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-80000</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3434,6 +3937,12 @@
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OTIS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OTIS_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,56 +665,57 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
-      </c>
-      <c r="J7" s="2">
-        <v>43555</v>
       </c>
       <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
+      <c r="L7" s="2">
+        <v>43555</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
@@ -722,37 +723,40 @@
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>3408000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3493000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3268000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3029000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2966000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>13118000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3351000</v>
-      </c>
-      <c r="J8" s="3">
-        <v>3101000</v>
       </c>
       <c r="K8" s="3">
         <v>3101000</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
+      <c r="L8" s="3">
+        <v>3101000</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
@@ -760,37 +764,40 @@
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>2389000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2481000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2289000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2138000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2069000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>9292000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2367000</v>
-      </c>
-      <c r="J9" s="3">
-        <v>2200000</v>
       </c>
       <c r="K9" s="3">
         <v>2200000</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
+      <c r="L9" s="3">
+        <v>2200000</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
@@ -798,37 +805,40 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1019000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1012000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>979000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>891000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>897000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3826000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>984000</v>
-      </c>
-      <c r="J10" s="3">
-        <v>901000</v>
       </c>
       <c r="K10" s="3">
         <v>901000</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
+      <c r="L10" s="3">
+        <v>901000</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
@@ -836,8 +846,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -852,37 +865,38 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>35000</v>
+      </c>
+      <c r="E12" s="3">
         <v>40000</v>
-      </c>
-      <c r="E12" s="3">
-        <v>37000</v>
       </c>
       <c r="F12" s="3">
         <v>37000</v>
       </c>
       <c r="G12" s="3">
+        <v>37000</v>
+      </c>
+      <c r="H12" s="3">
         <v>38000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>163000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>40000</v>
-      </c>
-      <c r="J12" s="3">
-        <v>39000</v>
       </c>
       <c r="K12" s="3">
         <v>39000</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
+      <c r="L12" s="3">
+        <v>39000</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
@@ -890,8 +904,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,37 +945,40 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E14" s="3">
         <v>65000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>40000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>29000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>38000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>35000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>26000</v>
-      </c>
-      <c r="J14" s="3">
-        <v>17000</v>
       </c>
       <c r="K14" s="3">
         <v>17000</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
+      <c r="L14" s="3">
+        <v>17000</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
@@ -966,8 +986,11 @@
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1004,8 +1027,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1017,37 +1043,38 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2899000</v>
+      </c>
+      <c r="E17" s="3">
         <v>3053000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2814000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2613000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2637000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>11304000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2870000</v>
-      </c>
-      <c r="J17" s="3">
-        <v>2686000</v>
       </c>
       <c r="K17" s="3">
         <v>2686000</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
+      <c r="L17" s="3">
+        <v>2686000</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
@@ -1055,37 +1082,40 @@
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>509000</v>
+      </c>
+      <c r="E18" s="3">
         <v>440000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>454000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>416000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>329000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1814000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>481000</v>
-      </c>
-      <c r="J18" s="3">
-        <v>415000</v>
       </c>
       <c r="K18" s="3">
         <v>415000</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
+      <c r="L18" s="3">
+        <v>415000</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
@@ -1093,8 +1123,11 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1109,37 +1142,38 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-34000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-43000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-41000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-42000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>47000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>14000</v>
-      </c>
-      <c r="J20" s="3">
-        <v>10000</v>
       </c>
       <c r="K20" s="3">
         <v>10000</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
+      <c r="L20" s="3">
+        <v>10000</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
@@ -1147,37 +1181,40 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>526000</v>
+      </c>
+      <c r="E21" s="3">
         <v>448000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>461000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>423000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>370000</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J21" s="3">
-        <v>470000</v>
+      <c r="J21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K21" s="3">
         <v>470000</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
+      <c r="L21" s="3">
+        <v>470000</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
@@ -1185,8 +1222,11 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1217,43 +1257,46 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>475000</v>
+      </c>
+      <c r="E23" s="3">
         <v>397000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>413000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>374000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>327000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1861000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>495000</v>
-      </c>
-      <c r="J23" s="3">
-        <v>425000</v>
       </c>
       <c r="K23" s="3">
         <v>425000</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
+      <c r="L23" s="3">
+        <v>425000</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
@@ -1261,37 +1304,40 @@
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>123000</v>
+      </c>
+      <c r="E24" s="3">
         <v>118000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>103000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>109000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>125000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>594000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>143000</v>
-      </c>
-      <c r="J24" s="3">
-        <v>125000</v>
       </c>
       <c r="K24" s="3">
         <v>125000</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
+      <c r="L24" s="3">
+        <v>125000</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
@@ -1299,8 +1345,11 @@
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1337,37 +1386,40 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>352000</v>
+      </c>
+      <c r="E26" s="3">
         <v>279000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>310000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>265000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>202000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1267000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>352000</v>
-      </c>
-      <c r="J26" s="3">
-        <v>300000</v>
       </c>
       <c r="K26" s="3">
         <v>300000</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
+      <c r="L26" s="3">
+        <v>300000</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
@@ -1375,37 +1427,40 @@
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>308000</v>
+      </c>
+      <c r="E27" s="3">
         <v>251000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>266000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>224000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>165000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1116000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>308000</v>
-      </c>
-      <c r="J27" s="3">
-        <v>273000</v>
       </c>
       <c r="K27" s="3">
         <v>273000</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
+      <c r="L27" s="3">
+        <v>273000</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
@@ -1413,8 +1468,11 @@
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1451,8 +1509,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1489,8 +1550,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1527,8 +1591,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1565,37 +1632,40 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E32" s="3">
         <v>43000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>41000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>42000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-47000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-14000</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-10000</v>
       </c>
       <c r="K32" s="3">
         <v>-10000</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
+      <c r="L32" s="3">
+        <v>-10000</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
@@ -1603,37 +1673,40 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>308000</v>
+      </c>
+      <c r="E33" s="3">
         <v>251000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>266000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>224000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>165000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1116000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>308000</v>
-      </c>
-      <c r="J33" s="3">
-        <v>273000</v>
       </c>
       <c r="K33" s="3">
         <v>273000</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
+      <c r="L33" s="3">
+        <v>273000</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
@@ -1641,8 +1714,11 @@
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1679,37 +1755,40 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>308000</v>
+      </c>
+      <c r="E35" s="3">
         <v>251000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>266000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>224000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>165000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1116000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>308000</v>
-      </c>
-      <c r="J35" s="3">
-        <v>273000</v>
       </c>
       <c r="K35" s="3">
         <v>273000</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
+      <c r="L35" s="3">
+        <v>273000</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
@@ -1717,42 +1796,45 @@
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
-      </c>
-      <c r="J38" s="2">
-        <v>43555</v>
       </c>
       <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
+      <c r="L38" s="2">
+        <v>43555</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
@@ -1760,8 +1842,11 @@
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1776,8 +1861,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1792,26 +1878,27 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1725000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1782000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1733000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1912000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1207000</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1830,8 +1917,11 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1868,26 +1958,29 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3556000</v>
+      </c>
+      <c r="E43" s="3">
         <v>3606000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3439000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3349000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3379000</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1906,26 +1999,29 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>686000</v>
+      </c>
+      <c r="E44" s="3">
         <v>659000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>667000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>629000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>599000</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1944,26 +2040,29 @@
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>379000</v>
+      </c>
+      <c r="E45" s="3">
         <v>446000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>432000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>502000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>329000</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1982,26 +2081,29 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6346000</v>
+      </c>
+      <c r="E46" s="3">
         <v>6493000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>6271000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>6392000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5514000</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2020,26 +2122,29 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>341000</v>
+      </c>
+      <c r="E47" s="3">
         <v>334000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>456000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>427000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>428000</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2058,26 +2163,29 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1313000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1316000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1269000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1234000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1223000</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2096,26 +2204,29 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2175000</v>
+      </c>
+      <c r="E49" s="3">
         <v>2257000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2189000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2097000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2070000</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2134,8 +2245,11 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2172,8 +2286,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2210,26 +2327,29 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>330000</v>
+      </c>
+      <c r="E52" s="3">
         <v>310000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>288000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>291000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>289000</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2248,8 +2368,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2286,26 +2409,29 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10505000</v>
+      </c>
+      <c r="E54" s="3">
         <v>10710000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10473000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10441000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>9524000</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2324,8 +2450,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2340,8 +2469,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2356,26 +2486,27 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1459000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1453000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1392000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1349000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1102000</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2394,26 +2525,29 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>341000</v>
+      </c>
+      <c r="E58" s="3">
         <v>701000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>538000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>33000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>67000</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2432,26 +2566,29 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4595000</v>
+      </c>
+      <c r="E59" s="3">
         <v>4519000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4361000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4380000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4186000</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2470,26 +2607,29 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6395000</v>
+      </c>
+      <c r="E60" s="3">
         <v>6673000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6291000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5762000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5355000</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2508,26 +2648,29 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5457000</v>
+      </c>
+      <c r="E61" s="3">
         <v>5262000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5512000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6260000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6258000</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2546,26 +2689,29 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1939000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1976000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2053000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1995000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2100000</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2584,8 +2730,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2622,8 +2771,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2660,8 +2812,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2698,26 +2853,29 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>14415000</v>
+      </c>
+      <c r="E66" s="3">
         <v>14542000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>14497000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>14683000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>14345000</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2736,8 +2894,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2752,8 +2913,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2790,8 +2952,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2828,8 +2993,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2866,8 +3034,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2904,23 +3075,26 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2855000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-3076000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-3241000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-3418000</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2936,14 +3110,17 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M72" s="3">
-        <v>0</v>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2980,8 +3157,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3018,8 +3198,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3056,26 +3239,29 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3910000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3832000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-4024000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-4242000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-4821000</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3094,8 +3280,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3132,42 +3321,45 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
-      </c>
-      <c r="J80" s="2">
-        <v>43555</v>
       </c>
       <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
+      <c r="L80" s="2">
+        <v>43555</v>
       </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
@@ -3175,37 +3367,40 @@
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>308000</v>
+      </c>
+      <c r="E81" s="3">
         <v>251000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>266000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>224000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>165000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1116000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>308000</v>
-      </c>
-      <c r="J81" s="3">
-        <v>273000</v>
       </c>
       <c r="K81" s="3">
         <v>273000</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
+      <c r="L81" s="3">
+        <v>273000</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
@@ -3213,8 +3408,11 @@
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3229,8 +3427,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3238,17 +3437,17 @@
         <v>51000</v>
       </c>
       <c r="E83" s="3">
+        <v>51000</v>
+      </c>
+      <c r="F83" s="3">
         <v>48000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>49000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>43000</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3267,8 +3466,11 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3305,8 +3507,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3343,8 +3548,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3381,8 +3589,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3419,8 +3630,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3457,26 +3671,29 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>585000</v>
+      </c>
+      <c r="E89" s="3">
         <v>309000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>348000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>664000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>159000</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3495,8 +3712,11 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3511,26 +3731,27 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-44000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-71000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-37000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-36000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-39000</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3549,8 +3770,11 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3587,8 +3811,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3625,26 +3852,29 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-50000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-64000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-147000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-50000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-92000</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3663,8 +3893,11 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3679,8 +3912,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3688,11 +3922,11 @@
         <v>-87000</v>
       </c>
       <c r="E96" s="3">
+        <v>-87000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-86000</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
@@ -3717,8 +3951,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3755,8 +3992,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3793,8 +4033,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3831,26 +4074,29 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-574000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-255000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-409000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>76000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-256000</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3869,26 +4115,29 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="E101" s="3">
         <v>59000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>33000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>17000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-50000</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3907,26 +4156,29 @@
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-56000</v>
+      </c>
+      <c r="E102" s="3">
         <v>49000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-175000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>707000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-239000</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3943,6 +4195,9 @@
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OTIS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OTIS_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,60 +665,61 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
-      </c>
-      <c r="K7" s="2">
-        <v>43555</v>
       </c>
       <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
+      <c r="M7" s="2">
+        <v>43555</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
@@ -726,40 +727,43 @@
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>3701000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3408000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3493000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3268000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3029000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2966000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>13118000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3351000</v>
-      </c>
-      <c r="K8" s="3">
-        <v>3101000</v>
       </c>
       <c r="L8" s="3">
         <v>3101000</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
+      <c r="M8" s="3">
+        <v>3101000</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
@@ -767,40 +771,43 @@
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>2626000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2389000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2481000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2289000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2138000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2069000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>9292000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2367000</v>
-      </c>
-      <c r="K9" s="3">
-        <v>2200000</v>
       </c>
       <c r="L9" s="3">
         <v>2200000</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
+      <c r="M9" s="3">
+        <v>2200000</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
@@ -808,40 +815,43 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1075000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1019000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1012000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>979000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>891000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>897000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3826000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>984000</v>
-      </c>
-      <c r="K10" s="3">
-        <v>901000</v>
       </c>
       <c r="L10" s="3">
         <v>901000</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
+      <c r="M10" s="3">
+        <v>901000</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
@@ -849,8 +859,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -866,40 +879,41 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>39000</v>
+      </c>
+      <c r="E12" s="3">
         <v>35000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>40000</v>
-      </c>
-      <c r="F12" s="3">
-        <v>37000</v>
       </c>
       <c r="G12" s="3">
         <v>37000</v>
       </c>
       <c r="H12" s="3">
+        <v>37000</v>
+      </c>
+      <c r="I12" s="3">
         <v>38000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>163000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>40000</v>
-      </c>
-      <c r="K12" s="3">
-        <v>39000</v>
       </c>
       <c r="L12" s="3">
         <v>39000</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
+      <c r="M12" s="3">
+        <v>39000</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
@@ -907,8 +921,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -948,40 +965,43 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E14" s="3">
         <v>20000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>65000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>40000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>29000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>38000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>35000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>26000</v>
-      </c>
-      <c r="K14" s="3">
-        <v>17000</v>
       </c>
       <c r="L14" s="3">
         <v>17000</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
+      <c r="M14" s="3">
+        <v>17000</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
@@ -989,8 +1009,11 @@
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1030,8 +1053,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1044,40 +1070,41 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3140000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2899000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3053000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2814000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2613000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2637000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>11304000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2870000</v>
-      </c>
-      <c r="K17" s="3">
-        <v>2686000</v>
       </c>
       <c r="L17" s="3">
         <v>2686000</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
+      <c r="M17" s="3">
+        <v>2686000</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
@@ -1085,40 +1112,43 @@
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>561000</v>
+      </c>
+      <c r="E18" s="3">
         <v>509000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>440000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>454000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>416000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>329000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1814000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>481000</v>
-      </c>
-      <c r="K18" s="3">
-        <v>415000</v>
       </c>
       <c r="L18" s="3">
         <v>415000</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
+      <c r="M18" s="3">
+        <v>415000</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
@@ -1126,8 +1156,11 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1143,40 +1176,41 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-34000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-43000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-41000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-42000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>47000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>14000</v>
-      </c>
-      <c r="K20" s="3">
-        <v>10000</v>
       </c>
       <c r="L20" s="3">
         <v>10000</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
+      <c r="M20" s="3">
+        <v>10000</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
@@ -1184,40 +1218,43 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>583000</v>
+      </c>
+      <c r="E21" s="3">
         <v>526000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>448000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>461000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>423000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>370000</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3">
-        <v>470000</v>
+      <c r="K21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L21" s="3">
         <v>470000</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
+      <c r="M21" s="3">
+        <v>470000</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
@@ -1225,8 +1262,11 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1260,46 +1300,49 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>532000</v>
+      </c>
+      <c r="E23" s="3">
         <v>475000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>397000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>413000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>374000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>327000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1861000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>495000</v>
-      </c>
-      <c r="K23" s="3">
-        <v>425000</v>
       </c>
       <c r="L23" s="3">
         <v>425000</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
+      <c r="M23" s="3">
+        <v>425000</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
@@ -1307,40 +1350,43 @@
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>153000</v>
+      </c>
+      <c r="E24" s="3">
         <v>123000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>118000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>103000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>109000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>125000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>594000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>143000</v>
-      </c>
-      <c r="K24" s="3">
-        <v>125000</v>
       </c>
       <c r="L24" s="3">
         <v>125000</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
+      <c r="M24" s="3">
+        <v>125000</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
@@ -1348,8 +1394,11 @@
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1389,40 +1438,43 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>379000</v>
+      </c>
+      <c r="E26" s="3">
         <v>352000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>279000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>310000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>265000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>202000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1267000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>352000</v>
-      </c>
-      <c r="K26" s="3">
-        <v>300000</v>
       </c>
       <c r="L26" s="3">
         <v>300000</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
+      <c r="M26" s="3">
+        <v>300000</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
@@ -1430,40 +1482,43 @@
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>326000</v>
+      </c>
+      <c r="E27" s="3">
         <v>308000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>251000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>266000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>224000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>165000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1116000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>308000</v>
-      </c>
-      <c r="K27" s="3">
-        <v>273000</v>
       </c>
       <c r="L27" s="3">
         <v>273000</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
+      <c r="M27" s="3">
+        <v>273000</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
@@ -1471,8 +1526,11 @@
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1512,8 +1570,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1553,8 +1614,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1594,8 +1658,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1635,40 +1702,43 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E32" s="3">
         <v>34000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>43000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>41000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>42000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-47000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-14000</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-10000</v>
       </c>
       <c r="L32" s="3">
         <v>-10000</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
+      <c r="M32" s="3">
+        <v>-10000</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
@@ -1676,40 +1746,43 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>326000</v>
+      </c>
+      <c r="E33" s="3">
         <v>308000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>251000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>266000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>224000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>165000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1116000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>308000</v>
-      </c>
-      <c r="K33" s="3">
-        <v>273000</v>
       </c>
       <c r="L33" s="3">
         <v>273000</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
+      <c r="M33" s="3">
+        <v>273000</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
@@ -1717,8 +1790,11 @@
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1758,40 +1834,43 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>326000</v>
+      </c>
+      <c r="E35" s="3">
         <v>308000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>251000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>266000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>224000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>165000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1116000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>308000</v>
-      </c>
-      <c r="K35" s="3">
-        <v>273000</v>
       </c>
       <c r="L35" s="3">
         <v>273000</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
+      <c r="M35" s="3">
+        <v>273000</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
@@ -1799,45 +1878,48 @@
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
-      </c>
-      <c r="K38" s="2">
-        <v>43555</v>
       </c>
       <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
+      <c r="M38" s="2">
+        <v>43555</v>
       </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
@@ -1845,8 +1927,11 @@
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1862,8 +1947,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1879,29 +1965,30 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1923000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1725000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1782000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1733000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1912000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1207000</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1920,8 +2007,11 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1961,29 +2051,32 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3686000</v>
+      </c>
+      <c r="E43" s="3">
         <v>3556000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3606000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3439000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3349000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3379000</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2002,29 +2095,32 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>673000</v>
+      </c>
+      <c r="E44" s="3">
         <v>686000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>659000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>667000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>629000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>599000</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2043,29 +2139,32 @@
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>399000</v>
+      </c>
+      <c r="E45" s="3">
         <v>379000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>446000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>432000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>502000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>329000</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2084,29 +2183,32 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6681000</v>
+      </c>
+      <c r="E46" s="3">
         <v>6346000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>6493000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>6271000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>6392000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5514000</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2125,29 +2227,32 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>334000</v>
+      </c>
+      <c r="E47" s="3">
         <v>341000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>334000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>456000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>427000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>428000</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2166,29 +2271,32 @@
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1352000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1313000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1316000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1269000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1234000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1223000</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2207,29 +2315,32 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2200000</v>
+      </c>
+      <c r="E49" s="3">
         <v>2175000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2257000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2189000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2097000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2070000</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2248,8 +2359,11 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2289,8 +2403,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2330,29 +2447,32 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>290000</v>
+      </c>
+      <c r="E52" s="3">
         <v>330000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>310000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>288000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>291000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>289000</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2371,8 +2491,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2412,29 +2535,32 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10857000</v>
+      </c>
+      <c r="E54" s="3">
         <v>10505000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10710000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10473000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10441000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>9524000</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2453,8 +2579,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2470,8 +2599,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2487,29 +2617,30 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1569000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1459000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1453000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1392000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1349000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1102000</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2528,29 +2659,32 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>343000</v>
+      </c>
+      <c r="E58" s="3">
         <v>341000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>701000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>538000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>33000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>67000</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2569,29 +2703,32 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4804000</v>
+      </c>
+      <c r="E59" s="3">
         <v>4595000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4519000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4361000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4380000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4186000</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2610,29 +2747,32 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6716000</v>
+      </c>
+      <c r="E60" s="3">
         <v>6395000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6673000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6291000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5762000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5355000</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2651,8 +2791,11 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2660,20 +2803,20 @@
         <v>5457000</v>
       </c>
       <c r="E61" s="3">
+        <v>5457000</v>
+      </c>
+      <c r="F61" s="3">
         <v>5262000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5512000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6260000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6258000</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2692,29 +2835,32 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1938000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1939000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1976000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2053000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1995000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2100000</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2733,8 +2879,11 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2774,8 +2923,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2815,8 +2967,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2856,29 +3011,32 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>14713000</v>
+      </c>
+      <c r="E66" s="3">
         <v>14415000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>14542000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>14497000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>14683000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>14345000</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2897,8 +3055,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2914,8 +3075,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2955,8 +3117,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2996,8 +3161,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3037,8 +3205,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3078,26 +3249,29 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2633000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2855000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-3076000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-3241000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-3418000</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3113,14 +3287,17 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N72" s="3">
-        <v>0</v>
+      <c r="N72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3160,8 +3337,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3201,8 +3381,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3242,29 +3425,32 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3856000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3910000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-3832000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-4024000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-4242000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-4821000</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3283,8 +3469,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3324,45 +3513,48 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
-      </c>
-      <c r="K80" s="2">
-        <v>43555</v>
       </c>
       <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
+      <c r="M80" s="2">
+        <v>43555</v>
       </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
@@ -3370,40 +3562,43 @@
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>326000</v>
+      </c>
+      <c r="E81" s="3">
         <v>308000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>251000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>266000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>224000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>165000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1116000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>308000</v>
-      </c>
-      <c r="K81" s="3">
-        <v>273000</v>
       </c>
       <c r="L81" s="3">
         <v>273000</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
+      <c r="M81" s="3">
+        <v>273000</v>
       </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
@@ -3411,8 +3606,11 @@
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3428,8 +3626,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3440,17 +3639,17 @@
         <v>51000</v>
       </c>
       <c r="F83" s="3">
+        <v>51000</v>
+      </c>
+      <c r="G83" s="3">
         <v>48000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>49000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>43000</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3469,8 +3668,11 @@
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3510,8 +3712,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3551,8 +3756,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3592,8 +3800,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3633,8 +3844,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3674,29 +3888,32 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>533000</v>
+      </c>
+      <c r="E89" s="3">
         <v>585000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>309000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>348000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>664000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>159000</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3715,8 +3932,11 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3732,29 +3952,30 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-40000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-44000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-71000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-37000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-36000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-39000</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3773,8 +3994,11 @@
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3814,8 +4038,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3855,29 +4082,32 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-50000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-64000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-147000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-50000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-92000</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3896,8 +4126,11 @@
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3913,23 +4146,24 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-87000</v>
+        <v>-102000</v>
       </c>
       <c r="E96" s="3">
         <v>-87000</v>
       </c>
       <c r="F96" s="3">
+        <v>-87000</v>
+      </c>
+      <c r="G96" s="3">
         <v>-86000</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
@@ -3954,8 +4188,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3995,8 +4232,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4036,8 +4276,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4077,29 +4320,32 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-342000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-574000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-255000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-409000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>76000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-256000</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4118,29 +4364,32 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-17000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>59000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>33000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>17000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-50000</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
@@ -4159,29 +4408,32 @@
       <c r="O101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>199000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-56000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>49000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-175000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>707000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-239000</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4198,6 +4450,9 @@
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OTIS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OTIS_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,64 +665,65 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
-      </c>
-      <c r="L7" s="2">
-        <v>43555</v>
       </c>
       <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
+      <c r="N7" s="2">
+        <v>43555</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
@@ -730,43 +731,46 @@
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>3620000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3701000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3408000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3493000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3268000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3029000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2966000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>13118000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3351000</v>
-      </c>
-      <c r="L8" s="3">
-        <v>3101000</v>
       </c>
       <c r="M8" s="3">
         <v>3101000</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
+      <c r="N8" s="3">
+        <v>3101000</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
@@ -774,43 +778,46 @@
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>2560000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2626000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2389000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2481000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2289000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2138000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2069000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>9292000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2367000</v>
-      </c>
-      <c r="L9" s="3">
-        <v>2200000</v>
       </c>
       <c r="M9" s="3">
         <v>2200000</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
+      <c r="N9" s="3">
+        <v>2200000</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>3</v>
@@ -818,43 +825,46 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1060000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1075000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1019000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1012000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>979000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>891000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>897000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3826000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>984000</v>
-      </c>
-      <c r="L10" s="3">
-        <v>901000</v>
       </c>
       <c r="M10" s="3">
         <v>901000</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
+      <c r="N10" s="3">
+        <v>901000</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>3</v>
@@ -862,8 +872,11 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -880,8 +893,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -889,34 +903,34 @@
         <v>39000</v>
       </c>
       <c r="E12" s="3">
+        <v>39000</v>
+      </c>
+      <c r="F12" s="3">
         <v>35000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>40000</v>
-      </c>
-      <c r="G12" s="3">
-        <v>37000</v>
       </c>
       <c r="H12" s="3">
         <v>37000</v>
       </c>
       <c r="I12" s="3">
+        <v>37000</v>
+      </c>
+      <c r="J12" s="3">
         <v>38000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>163000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>40000</v>
-      </c>
-      <c r="L12" s="3">
-        <v>39000</v>
       </c>
       <c r="M12" s="3">
         <v>39000</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
+      <c r="N12" s="3">
+        <v>39000</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
@@ -924,8 +938,11 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -968,43 +985,46 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E14" s="3">
         <v>1000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>20000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>65000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>40000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>29000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>38000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>35000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>26000</v>
-      </c>
-      <c r="L14" s="3">
-        <v>17000</v>
       </c>
       <c r="M14" s="3">
         <v>17000</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
+      <c r="N14" s="3">
+        <v>17000</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>3</v>
@@ -1012,8 +1032,11 @@
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1056,8 +1079,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1071,43 +1097,44 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3078000</v>
+      </c>
+      <c r="E17" s="3">
         <v>3140000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2899000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3053000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2814000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2613000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2637000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>11304000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2870000</v>
-      </c>
-      <c r="L17" s="3">
-        <v>2686000</v>
       </c>
       <c r="M17" s="3">
         <v>2686000</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
+      <c r="N17" s="3">
+        <v>2686000</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
@@ -1115,43 +1142,46 @@
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>542000</v>
+      </c>
+      <c r="E18" s="3">
         <v>561000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>509000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>440000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>454000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>416000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>329000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1814000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>481000</v>
-      </c>
-      <c r="L18" s="3">
-        <v>415000</v>
       </c>
       <c r="M18" s="3">
         <v>415000</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
+      <c r="N18" s="3">
+        <v>415000</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
@@ -1159,8 +1189,11 @@
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1177,43 +1210,44 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-35000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-29000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-34000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-43000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-41000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-42000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>47000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>14000</v>
-      </c>
-      <c r="L20" s="3">
-        <v>10000</v>
       </c>
       <c r="M20" s="3">
         <v>10000</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
+      <c r="N20" s="3">
+        <v>10000</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
@@ -1221,43 +1255,46 @@
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>557000</v>
+      </c>
+      <c r="E21" s="3">
         <v>583000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>526000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>448000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>461000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>423000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>370000</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3">
-        <v>470000</v>
+      <c r="L21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M21" s="3">
         <v>470000</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
+      <c r="N21" s="3">
+        <v>470000</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
@@ -1265,8 +1302,11 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1303,49 +1343,52 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>507000</v>
+      </c>
+      <c r="E23" s="3">
         <v>532000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>475000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>397000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>413000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>374000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>327000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1861000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>495000</v>
-      </c>
-      <c r="L23" s="3">
-        <v>425000</v>
       </c>
       <c r="M23" s="3">
         <v>425000</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
+      <c r="N23" s="3">
+        <v>425000</v>
       </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
@@ -1353,43 +1396,46 @@
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>128000</v>
+      </c>
+      <c r="E24" s="3">
         <v>153000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>123000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>118000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>103000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>109000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>125000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>594000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>143000</v>
-      </c>
-      <c r="L24" s="3">
-        <v>125000</v>
       </c>
       <c r="M24" s="3">
         <v>125000</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
+      <c r="N24" s="3">
+        <v>125000</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
@@ -1397,8 +1443,11 @@
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1441,8 +1490,11 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1450,34 +1502,34 @@
         <v>379000</v>
       </c>
       <c r="E26" s="3">
+        <v>379000</v>
+      </c>
+      <c r="F26" s="3">
         <v>352000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>279000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>310000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>265000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>202000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1267000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>352000</v>
-      </c>
-      <c r="L26" s="3">
-        <v>300000</v>
       </c>
       <c r="M26" s="3">
         <v>300000</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
+      <c r="N26" s="3">
+        <v>300000</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
@@ -1485,43 +1537,46 @@
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>331000</v>
+      </c>
+      <c r="E27" s="3">
         <v>326000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>308000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>251000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>266000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>224000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>165000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1116000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>308000</v>
-      </c>
-      <c r="L27" s="3">
-        <v>273000</v>
       </c>
       <c r="M27" s="3">
         <v>273000</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
+      <c r="N27" s="3">
+        <v>273000</v>
       </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
@@ -1529,8 +1584,11 @@
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1573,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1617,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1661,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1705,43 +1772,46 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>35000</v>
+      </c>
+      <c r="E32" s="3">
         <v>29000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>34000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>43000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>41000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>42000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-47000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-14000</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-10000</v>
       </c>
       <c r="M32" s="3">
         <v>-10000</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
+      <c r="N32" s="3">
+        <v>-10000</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
@@ -1749,43 +1819,46 @@
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>331000</v>
+      </c>
+      <c r="E33" s="3">
         <v>326000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>308000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>251000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>266000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>224000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>165000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1116000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>308000</v>
-      </c>
-      <c r="L33" s="3">
-        <v>273000</v>
       </c>
       <c r="M33" s="3">
         <v>273000</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
+      <c r="N33" s="3">
+        <v>273000</v>
       </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
@@ -1793,8 +1866,11 @@
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1837,43 +1913,46 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>331000</v>
+      </c>
+      <c r="E35" s="3">
         <v>326000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>308000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>251000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>266000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>224000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>165000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1116000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>308000</v>
-      </c>
-      <c r="L35" s="3">
-        <v>273000</v>
       </c>
       <c r="M35" s="3">
         <v>273000</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
+      <c r="N35" s="3">
+        <v>273000</v>
       </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
@@ -1881,48 +1960,51 @@
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
-      </c>
-      <c r="L38" s="2">
-        <v>43555</v>
       </c>
       <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
+      <c r="N38" s="2">
+        <v>43555</v>
       </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
@@ -1930,8 +2012,11 @@
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1948,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1966,32 +2052,33 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1553000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1923000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1725000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1782000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1733000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1912000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1207000</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2010,8 +2097,11 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2054,32 +2144,35 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3753000</v>
+      </c>
+      <c r="E43" s="3">
         <v>3686000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3556000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3606000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3439000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3349000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3379000</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2098,32 +2191,35 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>628000</v>
+      </c>
+      <c r="E44" s="3">
         <v>673000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>686000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>659000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>667000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>629000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>599000</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2142,32 +2238,35 @@
       <c r="P44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>441000</v>
+      </c>
+      <c r="E45" s="3">
         <v>399000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>379000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>446000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>432000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>502000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>329000</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2186,32 +2285,35 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6375000</v>
+      </c>
+      <c r="E46" s="3">
         <v>6681000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>6346000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>6493000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>6271000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>6392000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5514000</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2230,32 +2332,35 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>352000</v>
+      </c>
+      <c r="E47" s="3">
         <v>334000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>341000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>334000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>456000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>427000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>428000</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2274,32 +2379,35 @@
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1328000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1352000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1313000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1316000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1269000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1234000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1223000</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2318,32 +2426,35 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2136000</v>
+      </c>
+      <c r="E49" s="3">
         <v>2200000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2175000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2257000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2189000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2097000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2070000</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2362,8 +2473,11 @@
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2406,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2450,32 +2567,35 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>281000</v>
+      </c>
+      <c r="E52" s="3">
         <v>290000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>330000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>310000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>288000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>291000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>289000</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2494,8 +2614,11 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2538,32 +2661,35 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10472000</v>
+      </c>
+      <c r="E54" s="3">
         <v>10857000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10505000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10710000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10473000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>10441000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>9524000</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2582,8 +2708,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2600,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2618,32 +2748,33 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1662000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1569000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1459000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1453000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1392000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1349000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1102000</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2662,32 +2793,35 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>38000</v>
+      </c>
+      <c r="E58" s="3">
         <v>343000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>341000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>701000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>538000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>33000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>67000</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2706,32 +2840,35 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4663000</v>
+      </c>
+      <c r="E59" s="3">
         <v>4804000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4595000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4519000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4361000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4380000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4186000</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2750,32 +2887,35 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6363000</v>
+      </c>
+      <c r="E60" s="3">
         <v>6716000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6395000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6673000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6291000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5762000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5355000</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2794,32 +2934,35 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5457000</v>
+        <v>5458000</v>
       </c>
       <c r="E61" s="3">
         <v>5457000</v>
       </c>
       <c r="F61" s="3">
+        <v>5457000</v>
+      </c>
+      <c r="G61" s="3">
         <v>5262000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5512000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6260000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>6258000</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2838,32 +2981,35 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1884000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1938000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1939000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1976000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2053000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1995000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2100000</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2882,8 +3028,11 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2926,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2970,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3014,32 +3169,35 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>14326000</v>
+      </c>
+      <c r="E66" s="3">
         <v>14713000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>14415000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>14542000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>14497000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>14683000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>14345000</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3058,8 +3216,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3076,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3120,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3164,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3208,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3252,29 +3423,32 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2404000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2633000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2855000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-3076000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-3241000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-3418000</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3290,14 +3464,17 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O72" s="3">
-        <v>0</v>
+      <c r="O72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3340,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3384,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3428,32 +3611,35 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3854000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3856000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-3910000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-3832000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-4024000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-4242000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-4821000</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3472,8 +3658,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3516,48 +3705,51 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
-      </c>
-      <c r="L80" s="2">
-        <v>43555</v>
       </c>
       <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
+      <c r="N80" s="2">
+        <v>43555</v>
       </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
@@ -3565,43 +3757,46 @@
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>331000</v>
+      </c>
+      <c r="E81" s="3">
         <v>326000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>308000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>251000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>266000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>224000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>165000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1116000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>308000</v>
-      </c>
-      <c r="L81" s="3">
-        <v>273000</v>
       </c>
       <c r="M81" s="3">
         <v>273000</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
+      <c r="N81" s="3">
+        <v>273000</v>
       </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
@@ -3609,8 +3804,11 @@
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3627,13 +3825,14 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>51000</v>
+        <v>50000</v>
       </c>
       <c r="E83" s="3">
         <v>51000</v>
@@ -3642,17 +3841,17 @@
         <v>51000</v>
       </c>
       <c r="G83" s="3">
+        <v>51000</v>
+      </c>
+      <c r="H83" s="3">
         <v>48000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>49000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>43000</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3671,8 +3870,11 @@
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3715,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3759,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3803,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3847,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3891,32 +4105,35 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>355000</v>
+      </c>
+      <c r="E89" s="3">
         <v>533000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>585000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>309000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>348000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>664000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>159000</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3935,8 +4152,11 @@
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3953,32 +4173,33 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-40000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-44000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-71000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-37000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-36000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-39000</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3997,8 +4218,11 @@
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4041,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4085,32 +4312,35 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-17000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-50000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-64000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-147000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-50000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-92000</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4129,8 +4359,11 @@
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4147,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4156,17 +4390,17 @@
         <v>-102000</v>
       </c>
       <c r="E96" s="3">
-        <v>-87000</v>
+        <v>-102000</v>
       </c>
       <c r="F96" s="3">
         <v>-87000</v>
       </c>
       <c r="G96" s="3">
+        <v>-87000</v>
+      </c>
+      <c r="H96" s="3">
         <v>-86000</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
@@ -4191,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4235,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4279,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4323,32 +4566,35 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-705000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-342000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-574000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-255000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-409000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>76000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-256000</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4367,32 +4613,35 @@
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="E101" s="3">
         <v>25000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-17000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>59000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>33000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>17000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-50000</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
@@ -4411,32 +4660,35 @@
       <c r="P101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-371000</v>
+      </c>
+      <c r="E102" s="3">
         <v>199000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-56000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>49000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-175000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>707000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-239000</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4453,6 +4705,9 @@
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OTIS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OTIS_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,68 +665,68 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
-      </c>
-      <c r="M7" s="2">
-        <v>43555</v>
       </c>
       <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
+      <c r="O7" s="2">
+        <v>43555</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
@@ -734,46 +734,49 @@
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>3569000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3620000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3701000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3408000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3493000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3268000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3029000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2966000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>13118000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3351000</v>
-      </c>
-      <c r="M8" s="3">
-        <v>3101000</v>
       </c>
       <c r="N8" s="3">
         <v>3101000</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
+      <c r="O8" s="3">
+        <v>3101000</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
@@ -781,46 +784,49 @@
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>2530000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2560000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2626000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2389000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2481000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2289000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2138000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2069000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>9292000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2367000</v>
-      </c>
-      <c r="M9" s="3">
-        <v>2200000</v>
       </c>
       <c r="N9" s="3">
         <v>2200000</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
+      <c r="O9" s="3">
+        <v>2200000</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>3</v>
@@ -828,46 +834,49 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1039000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1060000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1075000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1019000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1012000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>979000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>891000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>897000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3826000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>984000</v>
-      </c>
-      <c r="M10" s="3">
-        <v>901000</v>
       </c>
       <c r="N10" s="3">
         <v>901000</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
+      <c r="O10" s="3">
+        <v>901000</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>3</v>
@@ -875,8 +884,11 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,46 +906,47 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>39000</v>
+        <v>46000</v>
       </c>
       <c r="E12" s="3">
         <v>39000</v>
       </c>
       <c r="F12" s="3">
+        <v>39000</v>
+      </c>
+      <c r="G12" s="3">
         <v>35000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>40000</v>
-      </c>
-      <c r="H12" s="3">
-        <v>37000</v>
       </c>
       <c r="I12" s="3">
         <v>37000</v>
       </c>
       <c r="J12" s="3">
+        <v>37000</v>
+      </c>
+      <c r="K12" s="3">
         <v>38000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>163000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>40000</v>
-      </c>
-      <c r="M12" s="3">
-        <v>39000</v>
       </c>
       <c r="N12" s="3">
         <v>39000</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
+      <c r="O12" s="3">
+        <v>39000</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>3</v>
@@ -941,8 +954,11 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,46 +1004,49 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E14" s="3">
         <v>19000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>20000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>65000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>40000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>29000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>38000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>35000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>26000</v>
-      </c>
-      <c r="M14" s="3">
-        <v>17000</v>
       </c>
       <c r="N14" s="3">
         <v>17000</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>3</v>
+      <c r="O14" s="3">
+        <v>17000</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>3</v>
@@ -1035,8 +1054,11 @@
       <c r="Q14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1104,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,46 +1123,47 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3073000</v>
+      </c>
+      <c r="E17" s="3">
         <v>3078000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3140000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2899000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3053000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2814000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2613000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2637000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>11304000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2870000</v>
-      </c>
-      <c r="M17" s="3">
-        <v>2686000</v>
       </c>
       <c r="N17" s="3">
         <v>2686000</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
+      <c r="O17" s="3">
+        <v>2686000</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
@@ -1145,46 +1171,49 @@
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>496000</v>
+      </c>
+      <c r="E18" s="3">
         <v>542000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>561000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>509000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>440000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>454000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>416000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>329000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1814000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>481000</v>
-      </c>
-      <c r="M18" s="3">
-        <v>415000</v>
       </c>
       <c r="N18" s="3">
         <v>415000</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
+      <c r="O18" s="3">
+        <v>415000</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
@@ -1192,8 +1221,11 @@
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,46 +1243,47 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-49000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-35000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-29000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-34000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-43000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-41000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-42000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>47000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>14000</v>
-      </c>
-      <c r="M20" s="3">
-        <v>10000</v>
       </c>
       <c r="N20" s="3">
         <v>10000</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
+      <c r="O20" s="3">
+        <v>10000</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
@@ -1258,46 +1291,49 @@
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>498000</v>
+      </c>
+      <c r="E21" s="3">
         <v>557000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>583000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>526000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>448000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>461000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>423000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>370000</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="3">
-        <v>470000</v>
+      <c r="M21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N21" s="3">
         <v>470000</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
+      <c r="O21" s="3">
+        <v>470000</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
@@ -1305,8 +1341,11 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1346,52 +1385,55 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
+      <c r="P22" s="3">
+        <v>0</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>447000</v>
+      </c>
+      <c r="E23" s="3">
         <v>507000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>532000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>475000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>397000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>413000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>374000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>327000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1861000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>495000</v>
-      </c>
-      <c r="M23" s="3">
-        <v>425000</v>
       </c>
       <c r="N23" s="3">
         <v>425000</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
+      <c r="O23" s="3">
+        <v>425000</v>
       </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
@@ -1399,46 +1441,49 @@
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>137000</v>
+      </c>
+      <c r="E24" s="3">
         <v>128000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>153000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>123000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>118000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>103000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>109000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>125000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>594000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>143000</v>
-      </c>
-      <c r="M24" s="3">
-        <v>125000</v>
       </c>
       <c r="N24" s="3">
         <v>125000</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
+      <c r="O24" s="3">
+        <v>125000</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>3</v>
@@ -1446,8 +1491,11 @@
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,46 +1541,49 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>379000</v>
+        <v>310000</v>
       </c>
       <c r="E26" s="3">
         <v>379000</v>
       </c>
       <c r="F26" s="3">
+        <v>379000</v>
+      </c>
+      <c r="G26" s="3">
         <v>352000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>279000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>310000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>265000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>202000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1267000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>352000</v>
-      </c>
-      <c r="M26" s="3">
-        <v>300000</v>
       </c>
       <c r="N26" s="3">
         <v>300000</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
+      <c r="O26" s="3">
+        <v>300000</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
@@ -1540,46 +1591,49 @@
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>281000</v>
+      </c>
+      <c r="E27" s="3">
         <v>331000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>326000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>308000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>251000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>266000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>224000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>165000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1116000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>308000</v>
-      </c>
-      <c r="M27" s="3">
-        <v>273000</v>
       </c>
       <c r="N27" s="3">
         <v>273000</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
+      <c r="O27" s="3">
+        <v>273000</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
@@ -1587,8 +1641,11 @@
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1691,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1741,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1791,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,46 +1841,49 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>49000</v>
+      </c>
+      <c r="E32" s="3">
         <v>35000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>29000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>34000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>43000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>41000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>42000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-47000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-14000</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-10000</v>
       </c>
       <c r="N32" s="3">
         <v>-10000</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
+      <c r="O32" s="3">
+        <v>-10000</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
@@ -1822,46 +1891,49 @@
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>281000</v>
+      </c>
+      <c r="E33" s="3">
         <v>331000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>326000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>308000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>251000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>266000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>224000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>165000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1116000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>308000</v>
-      </c>
-      <c r="M33" s="3">
-        <v>273000</v>
       </c>
       <c r="N33" s="3">
         <v>273000</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
+      <c r="O33" s="3">
+        <v>273000</v>
       </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
@@ -1869,8 +1941,11 @@
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,46 +1991,49 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>281000</v>
+      </c>
+      <c r="E35" s="3">
         <v>331000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>326000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>308000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>251000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>266000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>224000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>165000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1116000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>308000</v>
-      </c>
-      <c r="M35" s="3">
-        <v>273000</v>
       </c>
       <c r="N35" s="3">
         <v>273000</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
+      <c r="O35" s="3">
+        <v>273000</v>
       </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
@@ -1963,51 +2041,54 @@
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
-      </c>
-      <c r="M38" s="2">
-        <v>43555</v>
       </c>
       <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
+      <c r="O38" s="2">
+        <v>43555</v>
       </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
@@ -2015,8 +2096,11 @@
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2118,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,35 +2138,36 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1565000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1553000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1923000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1725000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1782000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1733000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1912000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1207000</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2100,8 +2186,11 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,35 +2236,38 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3782000</v>
+      </c>
+      <c r="E43" s="3">
         <v>3753000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3686000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3556000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3606000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3439000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3349000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3379000</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2194,35 +2286,38 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>622000</v>
+      </c>
+      <c r="E44" s="3">
         <v>628000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>673000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>686000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>659000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>667000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>629000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>599000</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2241,35 +2336,38 @@
       <c r="Q44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2292000</v>
+      </c>
+      <c r="E45" s="3">
         <v>441000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>399000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>379000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>446000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>432000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>502000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>329000</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2288,35 +2386,38 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>8261000</v>
+      </c>
+      <c r="E46" s="3">
         <v>6375000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>6681000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>6346000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>6493000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>6271000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>6392000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5514000</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2335,35 +2436,38 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>335000</v>
+      </c>
+      <c r="E47" s="3">
         <v>352000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>334000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>341000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>334000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>456000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>427000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>428000</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2382,35 +2486,38 @@
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1300000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1328000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1352000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1313000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1316000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1269000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1234000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1223000</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2429,35 +2536,38 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2086000</v>
+      </c>
+      <c r="E49" s="3">
         <v>2136000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2200000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2175000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2257000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2189000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2097000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2070000</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2476,8 +2586,11 @@
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2636,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,35 +2686,38 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>297000</v>
+      </c>
+      <c r="E52" s="3">
         <v>281000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>290000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>330000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>310000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>288000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>291000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>289000</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2617,8 +2736,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,35 +2786,38 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>12279000</v>
+      </c>
+      <c r="E54" s="3">
         <v>10472000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10857000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10505000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10710000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>10473000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>10441000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>9524000</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2711,8 +2836,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2858,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,35 +2878,36 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1556000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1662000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1569000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1459000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1453000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1392000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1349000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1102000</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2796,35 +2926,38 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E58" s="3">
         <v>38000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>343000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>341000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>701000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>538000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>33000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>67000</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2843,35 +2976,38 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4667000</v>
+      </c>
+      <c r="E59" s="3">
         <v>4663000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4804000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4595000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4519000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4361000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4380000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4186000</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2890,35 +3026,38 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6247000</v>
+      </c>
+      <c r="E60" s="3">
         <v>6363000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6716000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6395000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6673000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6291000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5762000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5355000</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2937,35 +3076,38 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7249000</v>
+      </c>
+      <c r="E61" s="3">
         <v>5458000</v>
-      </c>
-      <c r="E61" s="3">
-        <v>5457000</v>
       </c>
       <c r="F61" s="3">
         <v>5457000</v>
       </c>
       <c r="G61" s="3">
+        <v>5457000</v>
+      </c>
+      <c r="H61" s="3">
         <v>5262000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5512000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>6260000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>6258000</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2984,35 +3126,38 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1767000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1884000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1938000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1939000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1976000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2053000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1995000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2100000</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3031,8 +3176,11 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3226,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3276,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,35 +3326,38 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>15904000</v>
+      </c>
+      <c r="E66" s="3">
         <v>14326000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>14713000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>14415000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>14542000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>14497000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>14683000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>14345000</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3219,8 +3376,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3398,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3446,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3496,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3546,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,32 +3596,35 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2256000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2404000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2633000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2855000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-3076000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-3241000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-3418000</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3467,14 +3640,17 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P72" s="3">
-        <v>0</v>
+      <c r="P72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3696,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3746,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,35 +3796,38 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3625000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3854000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-3856000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-3910000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-3832000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-4024000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-4242000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-4821000</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3661,8 +3846,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,51 +3896,54 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
-      </c>
-      <c r="M80" s="2">
-        <v>43555</v>
       </c>
       <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
+      <c r="O80" s="2">
+        <v>43555</v>
       </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
@@ -3760,46 +3951,49 @@
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>281000</v>
+      </c>
+      <c r="E81" s="3">
         <v>331000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>326000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>308000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>251000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>266000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>224000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>165000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1116000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>308000</v>
-      </c>
-      <c r="M81" s="3">
-        <v>273000</v>
       </c>
       <c r="N81" s="3">
         <v>273000</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
+      <c r="O81" s="3">
+        <v>273000</v>
       </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
@@ -3807,8 +4001,11 @@
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,16 +4023,17 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>51000</v>
+      </c>
+      <c r="E83" s="3">
         <v>50000</v>
-      </c>
-      <c r="E83" s="3">
-        <v>51000</v>
       </c>
       <c r="F83" s="3">
         <v>51000</v>
@@ -3844,17 +4042,17 @@
         <v>51000</v>
       </c>
       <c r="H83" s="3">
+        <v>51000</v>
+      </c>
+      <c r="I83" s="3">
         <v>48000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>49000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>43000</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3873,8 +4071,11 @@
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4121,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4171,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4221,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4271,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,35 +4321,38 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>277000</v>
+      </c>
+      <c r="E89" s="3">
         <v>355000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>533000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>585000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>309000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>348000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>664000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>159000</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4155,8 +4371,11 @@
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,35 +4393,36 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-41000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-31000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-40000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-44000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-71000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-37000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-36000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-39000</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4221,8 +4441,11 @@
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4491,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,35 +4541,38 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-17000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-50000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-64000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-147000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-50000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-92000</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4362,8 +4591,11 @@
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4613,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4393,17 +4626,17 @@
         <v>-102000</v>
       </c>
       <c r="F96" s="3">
-        <v>-87000</v>
+        <v>-102000</v>
       </c>
       <c r="G96" s="3">
         <v>-87000</v>
       </c>
       <c r="H96" s="3">
+        <v>-87000</v>
+      </c>
+      <c r="I96" s="3">
         <v>-86000</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
@@ -4428,8 +4661,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4711,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4761,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,35 +4811,38 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1679000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-705000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-342000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-574000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-255000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-409000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>76000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-256000</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4616,35 +4861,38 @@
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-32000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-19000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>25000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-17000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>59000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>33000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>17000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-50000</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
@@ -4663,35 +4911,38 @@
       <c r="Q101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1904000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-371000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>199000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-56000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>49000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-175000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>707000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-239000</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4708,6 +4959,9 @@
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OTIS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OTIS_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,71 +665,72 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
-      </c>
-      <c r="N7" s="2">
-        <v>43555</v>
       </c>
       <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
+      <c r="P7" s="2">
+        <v>43555</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
@@ -737,49 +738,52 @@
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>3414000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3569000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3620000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3701000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3408000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3493000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3268000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3029000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2966000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>13118000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3351000</v>
-      </c>
-      <c r="N8" s="3">
-        <v>3101000</v>
       </c>
       <c r="O8" s="3">
         <v>3101000</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
+      <c r="P8" s="3">
+        <v>3101000</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>3</v>
@@ -787,49 +791,52 @@
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>2408000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2530000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2560000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2626000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2389000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2481000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2289000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2138000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2069000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>9292000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2367000</v>
-      </c>
-      <c r="N9" s="3">
-        <v>2200000</v>
       </c>
       <c r="O9" s="3">
         <v>2200000</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>3</v>
+      <c r="P9" s="3">
+        <v>2200000</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>3</v>
@@ -837,49 +844,52 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1006000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1039000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1060000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1075000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1019000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1012000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>979000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>891000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>897000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3826000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>984000</v>
-      </c>
-      <c r="N10" s="3">
-        <v>901000</v>
       </c>
       <c r="O10" s="3">
         <v>901000</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>3</v>
+      <c r="P10" s="3">
+        <v>901000</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>3</v>
@@ -887,8 +897,11 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -907,49 +920,50 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>37000</v>
+      </c>
+      <c r="E12" s="3">
         <v>46000</v>
-      </c>
-      <c r="E12" s="3">
-        <v>39000</v>
       </c>
       <c r="F12" s="3">
         <v>39000</v>
       </c>
       <c r="G12" s="3">
+        <v>39000</v>
+      </c>
+      <c r="H12" s="3">
         <v>35000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>40000</v>
-      </c>
-      <c r="I12" s="3">
-        <v>37000</v>
       </c>
       <c r="J12" s="3">
         <v>37000</v>
       </c>
       <c r="K12" s="3">
+        <v>37000</v>
+      </c>
+      <c r="L12" s="3">
         <v>38000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>163000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>40000</v>
-      </c>
-      <c r="N12" s="3">
-        <v>39000</v>
       </c>
       <c r="O12" s="3">
         <v>39000</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>3</v>
+      <c r="P12" s="3">
+        <v>39000</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>3</v>
@@ -957,8 +971,11 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1007,49 +1024,52 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E14" s="3">
         <v>21000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>19000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>20000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>65000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>40000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>29000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>38000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>35000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>26000</v>
-      </c>
-      <c r="N14" s="3">
-        <v>17000</v>
       </c>
       <c r="O14" s="3">
         <v>17000</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>3</v>
+      <c r="P14" s="3">
+        <v>17000</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>3</v>
@@ -1057,8 +1077,11 @@
       <c r="R14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1107,8 +1130,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1124,49 +1150,50 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2888000</v>
+      </c>
+      <c r="E17" s="3">
         <v>3073000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3078000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3140000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2899000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3053000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2814000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2613000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2637000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>11304000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2870000</v>
-      </c>
-      <c r="N17" s="3">
-        <v>2686000</v>
       </c>
       <c r="O17" s="3">
         <v>2686000</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
+      <c r="P17" s="3">
+        <v>2686000</v>
       </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
@@ -1174,49 +1201,52 @@
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>526000</v>
+      </c>
+      <c r="E18" s="3">
         <v>496000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>542000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>561000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>509000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>440000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>454000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>416000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>329000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1814000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>481000</v>
-      </c>
-      <c r="N18" s="3">
-        <v>415000</v>
       </c>
       <c r="O18" s="3">
         <v>415000</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
+      <c r="P18" s="3">
+        <v>415000</v>
       </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
@@ -1224,8 +1254,11 @@
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1244,49 +1277,50 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-37000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-49000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-35000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-29000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-34000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-43000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-41000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-42000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>47000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>14000</v>
-      </c>
-      <c r="N20" s="3">
-        <v>10000</v>
       </c>
       <c r="O20" s="3">
         <v>10000</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
+      <c r="P20" s="3">
+        <v>10000</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
@@ -1294,49 +1328,52 @@
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>537000</v>
+      </c>
+      <c r="E21" s="3">
         <v>498000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>557000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>583000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>526000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>448000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>461000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>423000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>370000</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N21" s="3">
-        <v>470000</v>
+      <c r="N21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O21" s="3">
         <v>470000</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
+      <c r="P21" s="3">
+        <v>470000</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
@@ -1344,8 +1381,11 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1388,55 +1428,58 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>3</v>
+      <c r="Q22" s="3">
+        <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>489000</v>
+      </c>
+      <c r="E23" s="3">
         <v>447000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>507000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>532000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>475000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>397000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>413000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>374000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>327000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1861000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>495000</v>
-      </c>
-      <c r="N23" s="3">
-        <v>425000</v>
       </c>
       <c r="O23" s="3">
         <v>425000</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
+      <c r="P23" s="3">
+        <v>425000</v>
       </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
@@ -1444,49 +1487,52 @@
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>136000</v>
+      </c>
+      <c r="E24" s="3">
         <v>137000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>128000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>153000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>123000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>118000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>103000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>109000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>125000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>594000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>143000</v>
-      </c>
-      <c r="N24" s="3">
-        <v>125000</v>
       </c>
       <c r="O24" s="3">
         <v>125000</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
+      <c r="P24" s="3">
+        <v>125000</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>3</v>
@@ -1494,8 +1540,11 @@
       <c r="R24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1544,49 +1593,52 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>353000</v>
+      </c>
+      <c r="E26" s="3">
         <v>310000</v>
-      </c>
-      <c r="E26" s="3">
-        <v>379000</v>
       </c>
       <c r="F26" s="3">
         <v>379000</v>
       </c>
       <c r="G26" s="3">
+        <v>379000</v>
+      </c>
+      <c r="H26" s="3">
         <v>352000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>279000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>310000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>265000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>202000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1267000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>352000</v>
-      </c>
-      <c r="N26" s="3">
-        <v>300000</v>
       </c>
       <c r="O26" s="3">
         <v>300000</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
+      <c r="P26" s="3">
+        <v>300000</v>
       </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
@@ -1594,49 +1646,52 @@
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>311000</v>
+      </c>
+      <c r="E27" s="3">
         <v>281000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>331000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>326000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>308000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>251000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>266000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>224000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>165000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1116000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>308000</v>
-      </c>
-      <c r="N27" s="3">
-        <v>273000</v>
       </c>
       <c r="O27" s="3">
         <v>273000</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
+      <c r="P27" s="3">
+        <v>273000</v>
       </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
@@ -1644,8 +1699,11 @@
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1694,8 +1752,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1744,8 +1805,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1794,8 +1858,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1844,49 +1911,52 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>37000</v>
+      </c>
+      <c r="E32" s="3">
         <v>49000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>35000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>29000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>34000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>43000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>41000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>42000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-47000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-14000</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-10000</v>
       </c>
       <c r="O32" s="3">
         <v>-10000</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
+      <c r="P32" s="3">
+        <v>-10000</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
@@ -1894,49 +1964,52 @@
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>311000</v>
+      </c>
+      <c r="E33" s="3">
         <v>281000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>331000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>326000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>308000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>251000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>266000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>224000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>165000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1116000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>308000</v>
-      </c>
-      <c r="N33" s="3">
-        <v>273000</v>
       </c>
       <c r="O33" s="3">
         <v>273000</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
+      <c r="P33" s="3">
+        <v>273000</v>
       </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
@@ -1944,8 +2017,11 @@
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1994,49 +2070,52 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>311000</v>
+      </c>
+      <c r="E35" s="3">
         <v>281000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>331000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>326000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>308000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>251000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>266000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>224000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>165000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1116000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>308000</v>
-      </c>
-      <c r="N35" s="3">
-        <v>273000</v>
       </c>
       <c r="O35" s="3">
         <v>273000</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
+      <c r="P35" s="3">
+        <v>273000</v>
       </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
@@ -2044,54 +2123,57 @@
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
-      </c>
-      <c r="N38" s="2">
-        <v>43555</v>
       </c>
       <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
+      <c r="P38" s="2">
+        <v>43555</v>
       </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
@@ -2099,8 +2181,11 @@
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2119,8 +2204,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2139,38 +2225,39 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1235000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1565000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1553000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1923000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1725000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1782000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1733000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1912000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1207000</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2189,8 +2276,11 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2239,38 +2329,41 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3800000</v>
+      </c>
+      <c r="E43" s="3">
         <v>3782000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3753000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3686000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3556000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3606000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3439000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3349000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3379000</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2289,38 +2382,41 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>626000</v>
+      </c>
+      <c r="E44" s="3">
         <v>622000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>628000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>673000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>686000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>659000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>667000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>629000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>599000</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2339,38 +2435,41 @@
       <c r="R44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2183000</v>
+      </c>
+      <c r="E45" s="3">
         <v>2292000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>441000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>399000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>379000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>446000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>432000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>502000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>329000</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2389,38 +2488,41 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>7844000</v>
+      </c>
+      <c r="E46" s="3">
         <v>8261000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>6375000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>6681000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>6346000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>6493000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>6271000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>6392000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5514000</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2439,38 +2541,41 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>311000</v>
+      </c>
+      <c r="E47" s="3">
         <v>335000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>352000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>334000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>341000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>334000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>456000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>427000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>428000</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2489,38 +2594,41 @@
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1299000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1300000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1328000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1352000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1313000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1316000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1269000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1234000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1223000</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2539,38 +2647,41 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2033000</v>
+      </c>
+      <c r="E49" s="3">
         <v>2086000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2136000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2200000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2175000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2257000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2189000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2097000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2070000</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2589,8 +2700,11 @@
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2639,8 +2753,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2689,38 +2806,41 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>308000</v>
+      </c>
+      <c r="E52" s="3">
         <v>297000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>281000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>290000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>330000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>310000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>288000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>291000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>289000</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2739,8 +2859,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2789,38 +2912,41 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>11795000</v>
+      </c>
+      <c r="E54" s="3">
         <v>12279000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10472000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10857000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10505000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>10710000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>10473000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>10441000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9524000</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2839,8 +2965,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2859,8 +2988,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2879,38 +3009,39 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1507000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1556000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1662000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1569000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1459000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1453000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1392000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1349000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1102000</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2929,38 +3060,41 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>51000</v>
+      </c>
+      <c r="E58" s="3">
         <v>24000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>38000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>343000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>341000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>701000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>538000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>33000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>67000</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2979,38 +3113,41 @@
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4684000</v>
+      </c>
+      <c r="E59" s="3">
         <v>4667000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4663000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4804000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4595000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4519000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4361000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4380000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4186000</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3029,38 +3166,41 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6242000</v>
+      </c>
+      <c r="E60" s="3">
         <v>6247000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6363000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6716000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6395000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6673000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6291000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5762000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5355000</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3079,38 +3219,41 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6694000</v>
+      </c>
+      <c r="E61" s="3">
         <v>7249000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5458000</v>
-      </c>
-      <c r="F61" s="3">
-        <v>5457000</v>
       </c>
       <c r="G61" s="3">
         <v>5457000</v>
       </c>
       <c r="H61" s="3">
+        <v>5457000</v>
+      </c>
+      <c r="I61" s="3">
         <v>5262000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5512000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>6260000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6258000</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -3129,38 +3272,41 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1800000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1767000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1884000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1938000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1939000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1976000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2053000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1995000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2100000</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3179,8 +3325,11 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3229,8 +3378,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3279,8 +3431,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3329,38 +3484,41 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>16824000</v>
+      </c>
+      <c r="E66" s="3">
         <v>15904000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>14326000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>14713000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>14415000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>14542000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>14497000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>14683000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>14345000</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3379,8 +3537,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3399,8 +3560,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3449,8 +3611,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3499,8 +3664,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3549,8 +3717,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3599,35 +3770,38 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3529000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2256000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2404000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2633000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2855000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-3076000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-3241000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-3418000</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3643,14 +3817,17 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q72" s="3">
-        <v>0</v>
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3699,8 +3876,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3749,8 +3929,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3799,38 +3982,41 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-5029000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3625000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-3854000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-3856000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-3910000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-3832000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-4024000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-4242000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-4821000</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3849,8 +4035,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3899,54 +4088,57 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
-      </c>
-      <c r="N80" s="2">
-        <v>43555</v>
       </c>
       <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
+      <c r="P80" s="2">
+        <v>43555</v>
       </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
@@ -3954,49 +4146,52 @@
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>311000</v>
+      </c>
+      <c r="E81" s="3">
         <v>281000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>331000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>326000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>308000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>251000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>266000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>224000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>165000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1116000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>308000</v>
-      </c>
-      <c r="N81" s="3">
-        <v>273000</v>
       </c>
       <c r="O81" s="3">
         <v>273000</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
+      <c r="P81" s="3">
+        <v>273000</v>
       </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
@@ -4004,8 +4199,11 @@
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4024,19 +4222,20 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E83" s="3">
         <v>51000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>50000</v>
-      </c>
-      <c r="F83" s="3">
-        <v>51000</v>
       </c>
       <c r="G83" s="3">
         <v>51000</v>
@@ -4045,17 +4244,17 @@
         <v>51000</v>
       </c>
       <c r="I83" s="3">
+        <v>51000</v>
+      </c>
+      <c r="J83" s="3">
         <v>48000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>49000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>43000</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4074,8 +4273,11 @@
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4124,8 +4326,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4174,8 +4379,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4224,8 +4432,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4274,8 +4485,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4324,38 +4538,41 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>504000</v>
+      </c>
+      <c r="E89" s="3">
         <v>277000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>355000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>533000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>585000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>309000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>348000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>664000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>159000</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4374,8 +4591,11 @@
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4394,38 +4614,39 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-30000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-41000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-31000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-40000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-44000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-71000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-37000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-36000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-39000</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4444,8 +4665,11 @@
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4494,8 +4718,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4544,38 +4771,41 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-20000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-17000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-50000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-64000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-147000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-50000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-92000</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4594,8 +4824,11 @@
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4614,8 +4847,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4629,17 +4863,17 @@
         <v>-102000</v>
       </c>
       <c r="G96" s="3">
-        <v>-87000</v>
+        <v>-102000</v>
       </c>
       <c r="H96" s="3">
         <v>-87000</v>
       </c>
       <c r="I96" s="3">
+        <v>-87000</v>
+      </c>
+      <c r="J96" s="3">
         <v>-86000</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
@@ -4664,8 +4898,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4714,8 +4951,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4764,8 +5004,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4814,38 +5057,41 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-823000</v>
+      </c>
+      <c r="E100" s="3">
         <v>1679000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-705000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-342000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-574000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-255000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-409000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>76000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-256000</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4864,38 +5110,41 @@
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-63000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-32000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-19000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>25000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-17000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>59000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>33000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>17000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-50000</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
@@ -4914,38 +5163,41 @@
       <c r="R101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-399000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1904000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-371000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>199000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-56000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>49000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-175000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>707000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-239000</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4962,6 +5214,9 @@
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OTIS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OTIS_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,75 +665,76 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
-      </c>
-      <c r="O7" s="2">
-        <v>43555</v>
       </c>
       <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
+      <c r="Q7" s="2">
+        <v>43555</v>
       </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
@@ -741,52 +742,55 @@
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>3488000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3414000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3569000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3620000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3701000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3408000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3493000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3268000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3029000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2966000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>13118000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3351000</v>
-      </c>
-      <c r="O8" s="3">
-        <v>3101000</v>
       </c>
       <c r="P8" s="3">
         <v>3101000</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>3</v>
+      <c r="Q8" s="3">
+        <v>3101000</v>
       </c>
       <c r="R8" s="3" t="s">
         <v>3</v>
@@ -794,52 +798,55 @@
       <c r="S8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>2505000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2408000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2530000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2560000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2626000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2389000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2481000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2289000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2138000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2069000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>9292000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2367000</v>
-      </c>
-      <c r="O9" s="3">
-        <v>2200000</v>
       </c>
       <c r="P9" s="3">
         <v>2200000</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>3</v>
+      <c r="Q9" s="3">
+        <v>2200000</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>3</v>
@@ -847,52 +854,55 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>983000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1006000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1039000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1060000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1075000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1019000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1012000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>979000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>891000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>897000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3826000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>984000</v>
-      </c>
-      <c r="O10" s="3">
-        <v>901000</v>
       </c>
       <c r="P10" s="3">
         <v>901000</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>3</v>
+      <c r="Q10" s="3">
+        <v>901000</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>3</v>
@@ -900,8 +910,11 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -921,52 +934,53 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>38000</v>
+      </c>
+      <c r="E12" s="3">
         <v>37000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>46000</v>
-      </c>
-      <c r="F12" s="3">
-        <v>39000</v>
       </c>
       <c r="G12" s="3">
         <v>39000</v>
       </c>
       <c r="H12" s="3">
+        <v>39000</v>
+      </c>
+      <c r="I12" s="3">
         <v>35000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>40000</v>
-      </c>
-      <c r="J12" s="3">
-        <v>37000</v>
       </c>
       <c r="K12" s="3">
         <v>37000</v>
       </c>
       <c r="L12" s="3">
+        <v>37000</v>
+      </c>
+      <c r="M12" s="3">
         <v>38000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>163000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>40000</v>
-      </c>
-      <c r="O12" s="3">
-        <v>39000</v>
       </c>
       <c r="P12" s="3">
         <v>39000</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>3</v>
+      <c r="Q12" s="3">
+        <v>39000</v>
       </c>
       <c r="R12" s="3" t="s">
         <v>3</v>
@@ -974,8 +988,11 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1027,52 +1044,55 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E14" s="3">
         <v>11000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>21000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>19000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>20000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>65000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>40000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>29000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>38000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>35000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>26000</v>
-      </c>
-      <c r="O14" s="3">
-        <v>17000</v>
       </c>
       <c r="P14" s="3">
         <v>17000</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>3</v>
+      <c r="Q14" s="3">
+        <v>17000</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>3</v>
@@ -1080,8 +1100,11 @@
       <c r="S14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1133,8 +1156,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1151,52 +1177,53 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3001000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2888000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3073000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3078000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3140000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2899000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3053000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2814000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2613000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2637000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>11304000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2870000</v>
-      </c>
-      <c r="O17" s="3">
-        <v>2686000</v>
       </c>
       <c r="P17" s="3">
         <v>2686000</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
+      <c r="Q17" s="3">
+        <v>2686000</v>
       </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
@@ -1204,52 +1231,55 @@
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>487000</v>
+      </c>
+      <c r="E18" s="3">
         <v>526000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>496000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>542000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>561000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>509000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>440000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>454000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>416000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>329000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1814000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>481000</v>
-      </c>
-      <c r="O18" s="3">
-        <v>415000</v>
       </c>
       <c r="P18" s="3">
         <v>415000</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
+      <c r="Q18" s="3">
+        <v>415000</v>
       </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
@@ -1257,8 +1287,11 @@
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1278,52 +1311,53 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-36000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-37000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-49000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-35000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-29000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-34000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-43000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-41000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-42000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>47000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>14000</v>
-      </c>
-      <c r="O20" s="3">
-        <v>10000</v>
       </c>
       <c r="P20" s="3">
         <v>10000</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
+      <c r="Q20" s="3">
+        <v>10000</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
@@ -1331,52 +1365,55 @@
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>500000</v>
+      </c>
+      <c r="E21" s="3">
         <v>537000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>498000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>557000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>583000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>526000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>448000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>461000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>423000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>370000</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O21" s="3">
-        <v>470000</v>
+      <c r="O21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P21" s="3">
         <v>470000</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
+      <c r="Q21" s="3">
+        <v>470000</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
@@ -1384,8 +1421,11 @@
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1431,58 +1471,61 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>3</v>
+      <c r="R22" s="3">
+        <v>0</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>451000</v>
+      </c>
+      <c r="E23" s="3">
         <v>489000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>447000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>507000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>532000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>475000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>397000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>413000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>374000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>327000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1861000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>495000</v>
-      </c>
-      <c r="O23" s="3">
-        <v>425000</v>
       </c>
       <c r="P23" s="3">
         <v>425000</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
+      <c r="Q23" s="3">
+        <v>425000</v>
       </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
@@ -1490,52 +1533,55 @@
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>103000</v>
+      </c>
+      <c r="E24" s="3">
         <v>136000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>137000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>128000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>153000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>123000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>118000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>103000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>109000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>125000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>594000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>143000</v>
-      </c>
-      <c r="O24" s="3">
-        <v>125000</v>
       </c>
       <c r="P24" s="3">
         <v>125000</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>3</v>
+      <c r="Q24" s="3">
+        <v>125000</v>
       </c>
       <c r="R24" s="3" t="s">
         <v>3</v>
@@ -1543,8 +1589,11 @@
       <c r="S24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1596,52 +1645,55 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>348000</v>
+      </c>
+      <c r="E26" s="3">
         <v>353000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>310000</v>
-      </c>
-      <c r="F26" s="3">
-        <v>379000</v>
       </c>
       <c r="G26" s="3">
         <v>379000</v>
       </c>
       <c r="H26" s="3">
+        <v>379000</v>
+      </c>
+      <c r="I26" s="3">
         <v>352000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>279000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>310000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>265000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>202000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1267000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>352000</v>
-      </c>
-      <c r="O26" s="3">
-        <v>300000</v>
       </c>
       <c r="P26" s="3">
         <v>300000</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
+      <c r="Q26" s="3">
+        <v>300000</v>
       </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
@@ -1649,52 +1701,55 @@
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>321000</v>
+      </c>
+      <c r="E27" s="3">
         <v>311000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>281000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>331000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>326000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>308000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>251000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>266000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>224000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>165000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1116000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>308000</v>
-      </c>
-      <c r="O27" s="3">
-        <v>273000</v>
       </c>
       <c r="P27" s="3">
         <v>273000</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
+      <c r="Q27" s="3">
+        <v>273000</v>
       </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
@@ -1702,8 +1757,11 @@
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1755,8 +1813,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1808,8 +1869,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1861,8 +1925,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1914,52 +1981,55 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E32" s="3">
         <v>37000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>49000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>35000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>29000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>34000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>43000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>41000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>42000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-47000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-14000</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-10000</v>
       </c>
       <c r="P32" s="3">
         <v>-10000</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
+      <c r="Q32" s="3">
+        <v>-10000</v>
       </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
@@ -1967,52 +2037,55 @@
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>321000</v>
+      </c>
+      <c r="E33" s="3">
         <v>311000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>281000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>331000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>326000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>308000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>251000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>266000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>224000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>165000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1116000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>308000</v>
-      </c>
-      <c r="O33" s="3">
-        <v>273000</v>
       </c>
       <c r="P33" s="3">
         <v>273000</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
+      <c r="Q33" s="3">
+        <v>273000</v>
       </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
@@ -2020,8 +2093,11 @@
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2073,52 +2149,55 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>321000</v>
+      </c>
+      <c r="E35" s="3">
         <v>311000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>281000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>331000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>326000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>308000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>251000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>266000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>224000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>165000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1116000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>308000</v>
-      </c>
-      <c r="O35" s="3">
-        <v>273000</v>
       </c>
       <c r="P35" s="3">
         <v>273000</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
+      <c r="Q35" s="3">
+        <v>273000</v>
       </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
@@ -2126,57 +2205,60 @@
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
-      </c>
-      <c r="O38" s="2">
-        <v>43555</v>
       </c>
       <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
+      <c r="Q38" s="2">
+        <v>43555</v>
       </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
@@ -2184,8 +2266,11 @@
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2205,8 +2290,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2226,41 +2312,42 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1218000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1235000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1565000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1553000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1923000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1725000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1782000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1733000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1912000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1207000</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2279,8 +2366,11 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2332,41 +2422,44 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3797000</v>
+      </c>
+      <c r="E43" s="3">
         <v>3800000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3782000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3753000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3686000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3556000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3606000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3439000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3349000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3379000</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2385,41 +2478,44 @@
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>596000</v>
+      </c>
+      <c r="E44" s="3">
         <v>626000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>622000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>628000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>673000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>686000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>659000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>667000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>629000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>599000</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2438,41 +2534,44 @@
       <c r="S44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>539000</v>
+      </c>
+      <c r="E45" s="3">
         <v>2183000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2292000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>441000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>399000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>379000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>446000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>432000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>502000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>329000</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2491,41 +2590,44 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6150000</v>
+      </c>
+      <c r="E46" s="3">
         <v>7844000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>8261000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>6375000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>6681000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>6346000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>6493000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>6271000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6392000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5514000</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2544,41 +2646,44 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>306000</v>
+      </c>
+      <c r="E47" s="3">
         <v>311000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>335000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>352000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>334000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>341000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>334000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>456000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>427000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>428000</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2597,41 +2702,44 @@
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1236000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1299000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1300000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1328000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1352000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1313000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1316000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1269000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1234000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1223000</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2650,41 +2758,44 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1935000</v>
+      </c>
+      <c r="E49" s="3">
         <v>2033000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2086000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2136000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2200000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2175000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2257000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2189000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2097000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2070000</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2703,8 +2814,11 @@
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2756,8 +2870,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2809,41 +2926,44 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>286000</v>
+      </c>
+      <c r="E52" s="3">
         <v>308000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>297000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>281000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>290000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>330000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>310000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>288000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>291000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>289000</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2862,8 +2982,11 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2915,41 +3038,44 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9913000</v>
+      </c>
+      <c r="E54" s="3">
         <v>11795000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>12279000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10472000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10857000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>10505000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>10710000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>10473000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10441000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9524000</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2968,8 +3094,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2989,8 +3118,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3010,41 +3140,42 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1616000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1507000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1556000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1662000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1569000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1459000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1453000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1392000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1349000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1102000</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3063,41 +3194,44 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>81000</v>
+      </c>
+      <c r="E58" s="3">
         <v>51000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>24000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>38000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>343000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>341000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>701000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>538000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>33000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>67000</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3116,41 +3250,44 @@
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4641000</v>
+      </c>
+      <c r="E59" s="3">
         <v>4684000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4667000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4663000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4804000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4595000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4519000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4361000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4380000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4186000</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3169,41 +3306,44 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6338000</v>
+      </c>
+      <c r="E60" s="3">
         <v>6242000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6247000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6363000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6716000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6395000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6673000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6291000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5762000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5355000</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3222,41 +3362,44 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6602000</v>
+      </c>
+      <c r="E61" s="3">
         <v>6694000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7249000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5458000</v>
-      </c>
-      <c r="G61" s="3">
-        <v>5457000</v>
       </c>
       <c r="H61" s="3">
         <v>5457000</v>
       </c>
       <c r="I61" s="3">
+        <v>5457000</v>
+      </c>
+      <c r="J61" s="3">
         <v>5262000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5512000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6260000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6258000</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3275,41 +3418,44 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1725000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1800000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1767000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1884000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1938000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1939000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1976000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2053000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1995000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2100000</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3328,8 +3474,11 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3381,8 +3530,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3434,8 +3586,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3487,41 +3642,44 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>14910000</v>
+      </c>
+      <c r="E66" s="3">
         <v>16824000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>15904000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>14326000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>14713000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>14415000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>14542000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>14497000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>14683000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>14345000</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3540,8 +3698,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3561,8 +3722,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3614,8 +3776,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3667,8 +3832,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3720,8 +3888,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3773,38 +3944,41 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3245000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-3529000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2256000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2404000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2633000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2855000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-3076000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-3241000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3418000</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3820,14 +3994,17 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R72" s="3">
-        <v>0</v>
+      <c r="R72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3879,8 +4056,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3932,8 +4112,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3985,41 +4168,44 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-4997000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-5029000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-3625000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-3854000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-3856000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-3910000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-3832000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-4024000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-4242000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-4821000</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4038,8 +4224,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4091,57 +4280,60 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
-      </c>
-      <c r="O80" s="2">
-        <v>43555</v>
       </c>
       <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
+      <c r="Q80" s="2">
+        <v>43555</v>
       </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
@@ -4149,52 +4341,55 @@
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>321000</v>
+      </c>
+      <c r="E81" s="3">
         <v>311000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>281000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>331000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>326000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>308000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>251000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>266000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>224000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>165000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1116000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>308000</v>
-      </c>
-      <c r="O81" s="3">
-        <v>273000</v>
       </c>
       <c r="P81" s="3">
         <v>273000</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
+      <c r="Q81" s="3">
+        <v>273000</v>
       </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
@@ -4202,8 +4397,11 @@
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4223,22 +4421,23 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>49000</v>
+      </c>
+      <c r="E83" s="3">
         <v>48000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>51000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>50000</v>
-      </c>
-      <c r="G83" s="3">
-        <v>51000</v>
       </c>
       <c r="H83" s="3">
         <v>51000</v>
@@ -4247,17 +4446,17 @@
         <v>51000</v>
       </c>
       <c r="J83" s="3">
+        <v>51000</v>
+      </c>
+      <c r="K83" s="3">
         <v>48000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>49000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>43000</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4276,8 +4475,11 @@
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4329,8 +4531,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4382,8 +4587,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4435,8 +4643,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4488,8 +4699,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4541,41 +4755,44 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>353000</v>
+      </c>
+      <c r="E89" s="3">
         <v>504000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>277000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>355000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>533000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>585000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>309000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>348000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>664000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>159000</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4594,8 +4811,11 @@
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4615,41 +4835,42 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-27000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-30000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-41000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-31000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-40000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-44000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-71000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-37000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-36000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-39000</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4668,8 +4889,11 @@
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4721,8 +4945,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4774,41 +5001,44 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-17000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-20000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-17000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-50000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-64000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-147000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-50000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-92000</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4827,8 +5057,11 @@
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4848,13 +5081,14 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-102000</v>
+        <v>-122000</v>
       </c>
       <c r="E96" s="3">
         <v>-102000</v>
@@ -4866,17 +5100,17 @@
         <v>-102000</v>
       </c>
       <c r="H96" s="3">
-        <v>-87000</v>
+        <v>-102000</v>
       </c>
       <c r="I96" s="3">
         <v>-87000</v>
       </c>
       <c r="J96" s="3">
+        <v>-87000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-86000</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -4901,8 +5135,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4954,8 +5191,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5007,8 +5247,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5060,41 +5303,44 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2114000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-823000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1679000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-705000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-342000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-574000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-255000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-409000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>76000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-256000</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5113,41 +5359,44 @@
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-59000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-63000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-32000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-19000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>25000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-17000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>59000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>33000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>17000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-50000</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
@@ -5166,41 +5415,44 @@
       <c r="S101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1813000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-399000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1904000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-371000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>199000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-56000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>49000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-175000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>707000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-239000</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5217,6 +5469,9 @@
         <v>3</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OTIS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OTIS_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,79 +665,80 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
-      </c>
-      <c r="P7" s="2">
-        <v>43555</v>
       </c>
       <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
+      <c r="R7" s="2">
+        <v>43555</v>
       </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
@@ -745,55 +746,58 @@
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>3344000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3488000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3414000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3569000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3620000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3701000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3408000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3493000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3268000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3029000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2966000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>13118000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3351000</v>
-      </c>
-      <c r="P8" s="3">
-        <v>3101000</v>
       </c>
       <c r="Q8" s="3">
         <v>3101000</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>3</v>
+      <c r="R8" s="3">
+        <v>3101000</v>
       </c>
       <c r="S8" s="3" t="s">
         <v>3</v>
@@ -801,55 +805,58 @@
       <c r="T8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>2373000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2505000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2408000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2530000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2560000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2626000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2389000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2481000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2289000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2138000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2069000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>9292000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2367000</v>
-      </c>
-      <c r="P9" s="3">
-        <v>2200000</v>
       </c>
       <c r="Q9" s="3">
         <v>2200000</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>3</v>
+      <c r="R9" s="3">
+        <v>2200000</v>
       </c>
       <c r="S9" s="3" t="s">
         <v>3</v>
@@ -857,55 +864,58 @@
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>971000</v>
+      </c>
+      <c r="E10" s="3">
         <v>983000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1006000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1039000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1060000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1075000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1019000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1012000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>979000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>891000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>897000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3826000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>984000</v>
-      </c>
-      <c r="P10" s="3">
-        <v>901000</v>
       </c>
       <c r="Q10" s="3">
         <v>901000</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>3</v>
+      <c r="R10" s="3">
+        <v>901000</v>
       </c>
       <c r="S10" s="3" t="s">
         <v>3</v>
@@ -913,8 +923,11 @@
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -935,55 +948,56 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>37000</v>
+      </c>
+      <c r="E12" s="3">
         <v>38000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>37000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>46000</v>
-      </c>
-      <c r="G12" s="3">
-        <v>39000</v>
       </c>
       <c r="H12" s="3">
         <v>39000</v>
       </c>
       <c r="I12" s="3">
+        <v>39000</v>
+      </c>
+      <c r="J12" s="3">
         <v>35000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>40000</v>
-      </c>
-      <c r="K12" s="3">
-        <v>37000</v>
       </c>
       <c r="L12" s="3">
         <v>37000</v>
       </c>
       <c r="M12" s="3">
+        <v>37000</v>
+      </c>
+      <c r="N12" s="3">
         <v>38000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>163000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>40000</v>
-      </c>
-      <c r="P12" s="3">
-        <v>39000</v>
       </c>
       <c r="Q12" s="3">
         <v>39000</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>3</v>
+      <c r="R12" s="3">
+        <v>39000</v>
       </c>
       <c r="S12" s="3" t="s">
         <v>3</v>
@@ -991,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1047,55 +1064,58 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E14" s="3">
         <v>14000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>11000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>21000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>19000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>20000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>65000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>40000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>29000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>38000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>35000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>26000</v>
-      </c>
-      <c r="P14" s="3">
-        <v>17000</v>
       </c>
       <c r="Q14" s="3">
         <v>17000</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>3</v>
+      <c r="R14" s="3">
+        <v>17000</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>3</v>
@@ -1103,8 +1123,11 @@
       <c r="T14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1159,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1178,55 +1204,56 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2815000</v>
+      </c>
+      <c r="E17" s="3">
         <v>3001000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2888000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3073000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3078000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3140000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2899000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3053000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2814000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2613000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2637000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>11304000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2870000</v>
-      </c>
-      <c r="P17" s="3">
-        <v>2686000</v>
       </c>
       <c r="Q17" s="3">
         <v>2686000</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
+      <c r="R17" s="3">
+        <v>2686000</v>
       </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
@@ -1234,55 +1261,58 @@
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>529000</v>
+      </c>
+      <c r="E18" s="3">
         <v>487000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>526000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>496000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>542000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>561000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>509000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>440000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>454000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>416000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>329000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1814000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>481000</v>
-      </c>
-      <c r="P18" s="3">
-        <v>415000</v>
       </c>
       <c r="Q18" s="3">
         <v>415000</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
+      <c r="R18" s="3">
+        <v>415000</v>
       </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
@@ -1290,8 +1320,11 @@
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1312,8 +1345,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1321,46 +1355,46 @@
         <v>-36000</v>
       </c>
       <c r="E20" s="3">
+        <v>-36000</v>
+      </c>
+      <c r="F20" s="3">
         <v>-37000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-49000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-35000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-29000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-34000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-43000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-41000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-42000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>47000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>14000</v>
-      </c>
-      <c r="P20" s="3">
-        <v>10000</v>
       </c>
       <c r="Q20" s="3">
         <v>10000</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
+      <c r="R20" s="3">
+        <v>10000</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>3</v>
@@ -1368,55 +1402,58 @@
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>541000</v>
+      </c>
+      <c r="E21" s="3">
         <v>500000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>537000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>498000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>557000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>583000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>526000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>448000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>461000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>423000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>370000</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P21" s="3">
-        <v>470000</v>
+      <c r="P21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q21" s="3">
         <v>470000</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
+      <c r="R21" s="3">
+        <v>470000</v>
       </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
@@ -1424,8 +1461,11 @@
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1474,61 +1514,64 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>3</v>
+      <c r="S22" s="3">
+        <v>0</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>493000</v>
+      </c>
+      <c r="E23" s="3">
         <v>451000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>489000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>447000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>507000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>532000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>475000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>397000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>413000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>374000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>327000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1861000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>495000</v>
-      </c>
-      <c r="P23" s="3">
-        <v>425000</v>
       </c>
       <c r="Q23" s="3">
         <v>425000</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
+      <c r="R23" s="3">
+        <v>425000</v>
       </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
@@ -1536,55 +1579,58 @@
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>143000</v>
+      </c>
+      <c r="E24" s="3">
         <v>103000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>136000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>137000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>128000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>153000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>123000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>118000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>103000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>109000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>125000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>594000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>143000</v>
-      </c>
-      <c r="P24" s="3">
-        <v>125000</v>
       </c>
       <c r="Q24" s="3">
         <v>125000</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>3</v>
+      <c r="R24" s="3">
+        <v>125000</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>3</v>
@@ -1592,8 +1638,11 @@
       <c r="T24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1648,55 +1697,58 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>350000</v>
+      </c>
+      <c r="E26" s="3">
         <v>348000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>353000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>310000</v>
-      </c>
-      <c r="G26" s="3">
-        <v>379000</v>
       </c>
       <c r="H26" s="3">
         <v>379000</v>
       </c>
       <c r="I26" s="3">
+        <v>379000</v>
+      </c>
+      <c r="J26" s="3">
         <v>352000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>279000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>310000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>265000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>202000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1267000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>352000</v>
-      </c>
-      <c r="P26" s="3">
-        <v>300000</v>
       </c>
       <c r="Q26" s="3">
         <v>300000</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
+      <c r="R26" s="3">
+        <v>300000</v>
       </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
@@ -1704,55 +1756,58 @@
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>324000</v>
+      </c>
+      <c r="E27" s="3">
         <v>321000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>311000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>281000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>331000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>326000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>308000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>251000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>266000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>224000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>165000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1116000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>308000</v>
-      </c>
-      <c r="P27" s="3">
-        <v>273000</v>
       </c>
       <c r="Q27" s="3">
         <v>273000</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
+      <c r="R27" s="3">
+        <v>273000</v>
       </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
@@ -1760,8 +1815,11 @@
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1816,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1872,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1928,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1984,8 +2051,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1993,46 +2063,46 @@
         <v>36000</v>
       </c>
       <c r="E32" s="3">
+        <v>36000</v>
+      </c>
+      <c r="F32" s="3">
         <v>37000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>49000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>35000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>29000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>34000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>43000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>41000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>42000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-47000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-14000</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-10000</v>
       </c>
       <c r="Q32" s="3">
         <v>-10000</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
+      <c r="R32" s="3">
+        <v>-10000</v>
       </c>
       <c r="S32" s="3" t="s">
         <v>3</v>
@@ -2040,55 +2110,58 @@
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>324000</v>
+      </c>
+      <c r="E33" s="3">
         <v>321000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>311000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>281000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>331000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>326000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>308000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>251000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>266000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>224000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>165000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1116000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>308000</v>
-      </c>
-      <c r="P33" s="3">
-        <v>273000</v>
       </c>
       <c r="Q33" s="3">
         <v>273000</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
+      <c r="R33" s="3">
+        <v>273000</v>
       </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
@@ -2096,8 +2169,11 @@
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2152,55 +2228,58 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>324000</v>
+      </c>
+      <c r="E35" s="3">
         <v>321000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>311000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>281000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>331000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>326000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>308000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>251000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>266000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>224000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>165000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1116000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>308000</v>
-      </c>
-      <c r="P35" s="3">
-        <v>273000</v>
       </c>
       <c r="Q35" s="3">
         <v>273000</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
+      <c r="R35" s="3">
+        <v>273000</v>
       </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
@@ -2208,60 +2287,63 @@
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
-      </c>
-      <c r="P38" s="2">
-        <v>43555</v>
       </c>
       <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
+      <c r="R38" s="2">
+        <v>43555</v>
       </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
@@ -2269,8 +2351,11 @@
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2291,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2313,44 +2399,45 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1034000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1218000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1235000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1565000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1553000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1923000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1725000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1782000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1733000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1912000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1207000</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2369,8 +2456,11 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2425,44 +2515,47 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3744000</v>
+      </c>
+      <c r="E43" s="3">
         <v>3797000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3800000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3782000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3753000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3686000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3556000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3606000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3439000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3349000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3379000</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2481,44 +2574,47 @@
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>603000</v>
+      </c>
+      <c r="E44" s="3">
         <v>596000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>626000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>622000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>628000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>673000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>686000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>659000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>667000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>629000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>599000</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2537,44 +2633,47 @@
       <c r="T44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>448000</v>
+      </c>
+      <c r="E45" s="3">
         <v>539000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2183000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2292000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>441000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>399000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>379000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>446000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>432000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>502000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>329000</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2593,44 +2692,47 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5829000</v>
+      </c>
+      <c r="E46" s="3">
         <v>6150000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>7844000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>8261000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>6375000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>6681000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>6346000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>6493000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6271000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6392000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5514000</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2649,44 +2751,47 @@
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>290000</v>
+      </c>
+      <c r="E47" s="3">
         <v>306000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>311000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>335000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>352000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>334000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>341000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>334000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>456000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>427000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>428000</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2705,44 +2810,47 @@
       <c r="T47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1156000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1236000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1299000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1300000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1328000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1352000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1313000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1316000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1269000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1234000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1223000</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2761,44 +2869,47 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1794000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1935000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2033000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2086000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2136000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2200000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2175000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2257000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2189000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2097000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2070000</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2817,8 +2928,11 @@
       <c r="T49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2873,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2929,44 +3046,47 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>273000</v>
+      </c>
+      <c r="E52" s="3">
         <v>286000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>308000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>297000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>281000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>290000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>330000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>310000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>288000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>291000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>289000</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2985,8 +3105,11 @@
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3041,44 +3164,47 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9342000</v>
+      </c>
+      <c r="E54" s="3">
         <v>9913000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>11795000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>12279000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10472000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>10857000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>10505000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>10710000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10473000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10441000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9524000</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3097,8 +3223,11 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3119,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3141,44 +3271,45 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1521000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1616000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1507000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1556000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1662000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1569000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1459000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1453000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1392000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1349000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1102000</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3197,44 +3328,47 @@
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>103000</v>
+      </c>
+      <c r="E58" s="3">
         <v>81000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>51000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>24000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>38000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>343000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>341000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>701000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>538000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>33000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>67000</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3253,44 +3387,47 @@
       <c r="T58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4368000</v>
+      </c>
+      <c r="E59" s="3">
         <v>4641000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4684000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4667000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4663000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4804000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4595000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4519000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4361000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4380000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4186000</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3309,44 +3446,47 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5992000</v>
+      </c>
+      <c r="E60" s="3">
         <v>6338000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6242000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6247000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6363000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6716000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6395000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6673000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6291000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5762000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5355000</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3365,44 +3505,47 @@
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6459000</v>
+      </c>
+      <c r="E61" s="3">
         <v>6602000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6694000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>7249000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5458000</v>
-      </c>
-      <c r="H61" s="3">
-        <v>5457000</v>
       </c>
       <c r="I61" s="3">
         <v>5457000</v>
       </c>
       <c r="J61" s="3">
+        <v>5457000</v>
+      </c>
+      <c r="K61" s="3">
         <v>5262000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5512000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6260000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6258000</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3421,44 +3564,47 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1624000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1725000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1800000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1767000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1884000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1938000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1939000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1976000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2053000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1995000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2100000</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3477,8 +3623,11 @@
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3533,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3589,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3645,44 +3800,47 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>14255000</v>
+      </c>
+      <c r="E66" s="3">
         <v>14910000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>16824000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>15904000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>14326000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>14713000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>14415000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>14542000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>14497000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>14683000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>14345000</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3701,8 +3859,11 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3723,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3779,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3835,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3891,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3947,41 +4118,44 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3042000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-3245000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-3529000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2256000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2404000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2633000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2855000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-3076000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3241000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3418000</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3997,14 +4171,17 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S72" s="3">
-        <v>0</v>
+      <c r="S72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4059,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4115,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4171,44 +4354,47 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-4913000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-4997000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-5029000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-3625000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-3854000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-3856000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-3910000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-3832000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-4024000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-4242000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-4821000</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4227,8 +4413,11 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4283,60 +4472,63 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
-      </c>
-      <c r="P80" s="2">
-        <v>43555</v>
       </c>
       <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
+      <c r="R80" s="2">
+        <v>43555</v>
       </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
@@ -4344,55 +4536,58 @@
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>324000</v>
+      </c>
+      <c r="E81" s="3">
         <v>321000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>311000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>281000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>331000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>326000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>308000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>251000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>266000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>224000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>165000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1116000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>308000</v>
-      </c>
-      <c r="P81" s="3">
-        <v>273000</v>
       </c>
       <c r="Q81" s="3">
         <v>273000</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
+      <c r="R81" s="3">
+        <v>273000</v>
       </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
@@ -4400,8 +4595,11 @@
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4422,25 +4620,26 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E83" s="3">
         <v>49000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>48000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>51000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>50000</v>
-      </c>
-      <c r="H83" s="3">
-        <v>51000</v>
       </c>
       <c r="I83" s="3">
         <v>51000</v>
@@ -4449,17 +4648,17 @@
         <v>51000</v>
       </c>
       <c r="K83" s="3">
+        <v>51000</v>
+      </c>
+      <c r="L83" s="3">
         <v>48000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>49000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>43000</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4478,8 +4677,11 @@
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4534,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4590,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4646,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4702,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4758,44 +4972,47 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>239000</v>
+      </c>
+      <c r="E89" s="3">
         <v>353000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>504000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>277000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>355000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>533000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>585000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>309000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>348000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>664000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>159000</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4814,8 +5031,11 @@
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4836,44 +5056,45 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-24000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-27000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-30000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-41000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-31000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-40000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-44000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-71000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-37000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-36000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-39000</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4892,8 +5113,11 @@
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4948,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5004,44 +5231,47 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>72000</v>
+      </c>
+      <c r="E94" s="3">
         <v>7000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-17000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-20000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-17000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-50000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-64000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-147000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-50000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-92000</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5060,8 +5290,11 @@
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5082,16 +5315,17 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-121000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-122000</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-102000</v>
       </c>
       <c r="F96" s="3">
         <v>-102000</v>
@@ -5103,17 +5337,17 @@
         <v>-102000</v>
       </c>
       <c r="I96" s="3">
-        <v>-87000</v>
+        <v>-102000</v>
       </c>
       <c r="J96" s="3">
         <v>-87000</v>
       </c>
       <c r="K96" s="3">
+        <v>-87000</v>
+      </c>
+      <c r="L96" s="3">
         <v>-86000</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
@@ -5138,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5194,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5250,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5306,44 +5549,47 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-465000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2114000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-823000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1679000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-705000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-342000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-574000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-255000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-409000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>76000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-256000</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5362,44 +5608,47 @@
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-69000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-59000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-63000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-32000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-19000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>25000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-17000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>59000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>33000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>17000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-50000</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O101" s="3" t="s">
         <v>3</v>
       </c>
@@ -5418,44 +5667,47 @@
       <c r="T101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-223000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1813000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-399000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1904000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-371000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>199000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-56000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>49000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-175000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>707000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-239000</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5472,6 +5724,9 @@
         <v>3</v>
       </c>
       <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OTIS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OTIS_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,83 +665,83 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>43555</v>
       </c>
       <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
+      <c r="S7" s="2">
+        <v>43555</v>
       </c>
       <c r="T7" s="2" t="s">
         <v>3</v>
@@ -749,58 +749,61 @@
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>3439000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3344000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3488000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3414000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3569000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3620000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3701000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3408000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3493000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3268000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3029000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2966000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>13118000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3351000</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>3101000</v>
       </c>
       <c r="R8" s="3">
         <v>3101000</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>3</v>
+      <c r="S8" s="3">
+        <v>3101000</v>
       </c>
       <c r="T8" s="3" t="s">
         <v>3</v>
@@ -808,58 +811,61 @@
       <c r="U8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>2479000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2373000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2505000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2408000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2530000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2560000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2626000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2389000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2481000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2289000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2138000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2069000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>9292000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2367000</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>2200000</v>
       </c>
       <c r="R9" s="3">
         <v>2200000</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>3</v>
+      <c r="S9" s="3">
+        <v>2200000</v>
       </c>
       <c r="T9" s="3" t="s">
         <v>3</v>
@@ -867,58 +873,61 @@
       <c r="U9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>960000</v>
+      </c>
+      <c r="E10" s="3">
         <v>971000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>983000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1006000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1039000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1060000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1075000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1019000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1012000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>979000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>891000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>897000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3826000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>984000</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>901000</v>
       </c>
       <c r="R10" s="3">
         <v>901000</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>3</v>
+      <c r="S10" s="3">
+        <v>901000</v>
       </c>
       <c r="T10" s="3" t="s">
         <v>3</v>
@@ -926,8 +935,11 @@
       <c r="U10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,58 +961,59 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>38000</v>
+      </c>
+      <c r="E12" s="3">
         <v>37000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>38000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>37000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>46000</v>
-      </c>
-      <c r="H12" s="3">
-        <v>39000</v>
       </c>
       <c r="I12" s="3">
         <v>39000</v>
       </c>
       <c r="J12" s="3">
+        <v>39000</v>
+      </c>
+      <c r="K12" s="3">
         <v>35000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>40000</v>
-      </c>
-      <c r="L12" s="3">
-        <v>37000</v>
       </c>
       <c r="M12" s="3">
         <v>37000</v>
       </c>
       <c r="N12" s="3">
+        <v>37000</v>
+      </c>
+      <c r="O12" s="3">
         <v>38000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>163000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>40000</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>39000</v>
       </c>
       <c r="R12" s="3">
         <v>39000</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>3</v>
+      <c r="S12" s="3">
+        <v>39000</v>
       </c>
       <c r="T12" s="3" t="s">
         <v>3</v>
@@ -1008,8 +1021,11 @@
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,58 +1083,61 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E14" s="3">
         <v>4000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>14000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>11000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>21000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>19000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>20000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>65000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>40000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>29000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>38000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>35000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>26000</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>17000</v>
       </c>
       <c r="R14" s="3">
         <v>17000</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>3</v>
+      <c r="S14" s="3">
+        <v>17000</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>3</v>
@@ -1126,8 +1145,11 @@
       <c r="U14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1207,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,58 +1230,59 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2948000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2815000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3001000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2888000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3073000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3078000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3140000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2899000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3053000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2814000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2613000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2637000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>11304000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2870000</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>2686000</v>
       </c>
       <c r="R17" s="3">
         <v>2686000</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
+      <c r="S17" s="3">
+        <v>2686000</v>
       </c>
       <c r="T17" s="3" t="s">
         <v>3</v>
@@ -1264,58 +1290,61 @@
       <c r="U17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>491000</v>
+      </c>
+      <c r="E18" s="3">
         <v>529000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>487000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>526000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>496000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>542000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>561000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>509000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>440000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>454000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>416000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>329000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1814000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>481000</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>415000</v>
       </c>
       <c r="R18" s="3">
         <v>415000</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
+      <c r="S18" s="3">
+        <v>415000</v>
       </c>
       <c r="T18" s="3" t="s">
         <v>3</v>
@@ -1323,8 +1352,11 @@
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,8 +1378,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1358,46 +1391,46 @@
         <v>-36000</v>
       </c>
       <c r="F20" s="3">
+        <v>-36000</v>
+      </c>
+      <c r="G20" s="3">
         <v>-37000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-49000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-35000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-29000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-34000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-43000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-41000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-42000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>47000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>14000</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>10000</v>
       </c>
       <c r="R20" s="3">
         <v>10000</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
+      <c r="S20" s="3">
+        <v>10000</v>
       </c>
       <c r="T20" s="3" t="s">
         <v>3</v>
@@ -1405,58 +1438,61 @@
       <c r="U20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>501000</v>
+      </c>
+      <c r="E21" s="3">
         <v>541000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>500000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>537000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>498000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>557000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>583000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>526000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>448000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>461000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>423000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>370000</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q21" s="3">
-        <v>470000</v>
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R21" s="3">
         <v>470000</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
+      <c r="S21" s="3">
+        <v>470000</v>
       </c>
       <c r="T21" s="3" t="s">
         <v>3</v>
@@ -1464,8 +1500,11 @@
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1517,64 +1556,67 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>3</v>
+      <c r="T22" s="3">
+        <v>0</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>455000</v>
+      </c>
+      <c r="E23" s="3">
         <v>493000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>451000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>489000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>447000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>507000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>532000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>475000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>397000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>413000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>374000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>327000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1861000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>495000</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>425000</v>
       </c>
       <c r="R23" s="3">
         <v>425000</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
+      <c r="S23" s="3">
+        <v>425000</v>
       </c>
       <c r="T23" s="3" t="s">
         <v>3</v>
@@ -1582,58 +1624,61 @@
       <c r="U23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>137000</v>
+      </c>
+      <c r="E24" s="3">
         <v>143000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>103000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>136000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>137000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>128000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>153000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>123000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>118000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>103000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>109000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>125000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>594000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>143000</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>125000</v>
       </c>
       <c r="R24" s="3">
         <v>125000</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>3</v>
+      <c r="S24" s="3">
+        <v>125000</v>
       </c>
       <c r="T24" s="3" t="s">
         <v>3</v>
@@ -1641,8 +1686,11 @@
       <c r="U24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,58 +1748,61 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>318000</v>
+      </c>
+      <c r="E26" s="3">
         <v>350000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>348000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>353000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>310000</v>
-      </c>
-      <c r="H26" s="3">
-        <v>379000</v>
       </c>
       <c r="I26" s="3">
         <v>379000</v>
       </c>
       <c r="J26" s="3">
+        <v>379000</v>
+      </c>
+      <c r="K26" s="3">
         <v>352000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>279000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>310000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>265000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>202000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1267000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>352000</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>300000</v>
       </c>
       <c r="R26" s="3">
         <v>300000</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
+      <c r="S26" s="3">
+        <v>300000</v>
       </c>
       <c r="T26" s="3" t="s">
         <v>3</v>
@@ -1759,58 +1810,61 @@
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>297000</v>
+      </c>
+      <c r="E27" s="3">
         <v>324000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>321000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>311000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>281000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>331000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>326000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>308000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>251000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>266000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>224000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>165000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1116000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>308000</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>273000</v>
       </c>
       <c r="R27" s="3">
         <v>273000</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
+      <c r="S27" s="3">
+        <v>273000</v>
       </c>
       <c r="T27" s="3" t="s">
         <v>3</v>
@@ -1818,8 +1872,11 @@
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1934,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1996,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2058,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,8 +2120,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2066,46 +2135,46 @@
         <v>36000</v>
       </c>
       <c r="F32" s="3">
+        <v>36000</v>
+      </c>
+      <c r="G32" s="3">
         <v>37000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>49000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>35000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>29000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>34000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>43000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>41000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>42000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-47000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-14000</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-10000</v>
       </c>
       <c r="R32" s="3">
         <v>-10000</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
+      <c r="S32" s="3">
+        <v>-10000</v>
       </c>
       <c r="T32" s="3" t="s">
         <v>3</v>
@@ -2113,58 +2182,61 @@
       <c r="U32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>297000</v>
+      </c>
+      <c r="E33" s="3">
         <v>324000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>321000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>311000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>281000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>331000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>326000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>308000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>251000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>266000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>224000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>165000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1116000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>308000</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>273000</v>
       </c>
       <c r="R33" s="3">
         <v>273000</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
+      <c r="S33" s="3">
+        <v>273000</v>
       </c>
       <c r="T33" s="3" t="s">
         <v>3</v>
@@ -2172,8 +2244,11 @@
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,58 +2306,61 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>297000</v>
+      </c>
+      <c r="E35" s="3">
         <v>324000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>321000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>311000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>281000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>331000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>326000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>308000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>251000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>266000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>224000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>165000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1116000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>308000</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>273000</v>
       </c>
       <c r="R35" s="3">
         <v>273000</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
+      <c r="S35" s="3">
+        <v>273000</v>
       </c>
       <c r="T35" s="3" t="s">
         <v>3</v>
@@ -2290,63 +2368,66 @@
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
-      </c>
-      <c r="Q38" s="2">
-        <v>43555</v>
       </c>
       <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
+      <c r="S38" s="2">
+        <v>43555</v>
       </c>
       <c r="T38" s="2" t="s">
         <v>3</v>
@@ -2354,8 +2435,11 @@
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2461,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,47 +2485,48 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1189000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1034000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1218000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1235000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1565000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1553000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1923000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1725000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1782000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1733000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1912000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1207000</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2459,8 +2545,11 @@
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,47 +2607,50 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4021000</v>
+      </c>
+      <c r="E43" s="3">
         <v>3744000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3797000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3800000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3782000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3753000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3686000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3556000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3606000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3439000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3349000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3379000</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2577,47 +2669,50 @@
       <c r="U43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>617000</v>
+      </c>
+      <c r="E44" s="3">
         <v>603000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>596000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>626000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>622000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>628000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>673000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>686000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>659000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>667000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>629000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>599000</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2636,47 +2731,50 @@
       <c r="U44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>316000</v>
+      </c>
+      <c r="E45" s="3">
         <v>448000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>539000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2183000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2292000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>441000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>399000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>379000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>446000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>432000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>502000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>329000</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2695,47 +2793,50 @@
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6143000</v>
+      </c>
+      <c r="E46" s="3">
         <v>5829000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>6150000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>7844000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>8261000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>6375000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>6681000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>6346000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6493000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6271000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6392000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5514000</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2754,47 +2855,50 @@
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>285000</v>
+      </c>
+      <c r="E47" s="3">
         <v>290000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>306000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>311000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>335000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>352000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>334000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>341000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>334000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>456000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>427000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>428000</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2813,47 +2917,50 @@
       <c r="U47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1168000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1156000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1236000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1299000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1300000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1328000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1352000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1313000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1316000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1269000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1234000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1223000</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2872,47 +2979,50 @@
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1936000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1794000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1935000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2033000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2086000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2136000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2200000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2175000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2257000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2189000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2097000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2070000</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2931,8 +3041,11 @@
       <c r="U49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3103,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,47 +3165,50 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>287000</v>
+      </c>
+      <c r="E52" s="3">
         <v>273000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>286000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>308000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>297000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>281000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>290000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>330000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>310000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>288000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>291000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>289000</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3108,8 +3227,11 @@
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,47 +3289,50 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9819000</v>
+      </c>
+      <c r="E54" s="3">
         <v>9342000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>9913000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>11795000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>12279000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>10472000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>10857000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>10505000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10710000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10473000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10441000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9524000</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3226,8 +3351,11 @@
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3377,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,47 +3401,48 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1717000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1521000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1616000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1507000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1556000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1662000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1569000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1459000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1453000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1392000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1349000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1102000</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3331,47 +3461,50 @@
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>670000</v>
+      </c>
+      <c r="E58" s="3">
         <v>103000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>81000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>51000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>24000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>38000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>343000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>341000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>701000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>538000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>33000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>67000</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3390,47 +3523,50 @@
       <c r="U58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4456000</v>
+      </c>
+      <c r="E59" s="3">
         <v>4368000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4641000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4684000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4667000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4663000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4804000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4595000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4519000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4361000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4380000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4186000</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3449,47 +3585,50 @@
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6843000</v>
+      </c>
+      <c r="E60" s="3">
         <v>5992000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6338000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6242000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6247000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6363000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6716000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6395000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6673000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6291000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5762000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5355000</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3508,47 +3647,50 @@
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6098000</v>
+      </c>
+      <c r="E61" s="3">
         <v>6459000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6602000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6694000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>7249000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5458000</v>
-      </c>
-      <c r="I61" s="3">
-        <v>5457000</v>
       </c>
       <c r="J61" s="3">
         <v>5457000</v>
       </c>
       <c r="K61" s="3">
+        <v>5457000</v>
+      </c>
+      <c r="L61" s="3">
         <v>5262000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5512000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6260000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>6258000</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3567,47 +3709,50 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1542000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1624000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1725000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1800000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1767000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1884000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1938000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1939000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1976000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2053000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1995000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2100000</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3626,8 +3771,11 @@
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3833,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3895,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,47 +3957,50 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>14689000</v>
+      </c>
+      <c r="E66" s="3">
         <v>14255000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>14910000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>16824000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>15904000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>14326000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>14713000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>14415000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>14542000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>14497000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>14683000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>14345000</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3862,8 +4019,11 @@
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4045,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4105,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4167,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4229,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,44 +4291,47 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2865000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-3042000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-3245000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-3529000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2256000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2404000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2633000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-2855000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3076000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3241000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3418000</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4174,14 +4347,17 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T72" s="3">
-        <v>0</v>
+      <c r="T72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4415,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4477,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,47 +4539,50 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-4870000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-4913000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-4997000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-5029000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-3625000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-3854000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-3856000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-3910000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-3832000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-4024000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-4242000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-4821000</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4416,8 +4601,11 @@
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,63 +4663,66 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
-      </c>
-      <c r="Q80" s="2">
-        <v>43555</v>
       </c>
       <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
+      <c r="S80" s="2">
+        <v>43555</v>
       </c>
       <c r="T80" s="2" t="s">
         <v>3</v>
@@ -4539,58 +4730,61 @@
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>297000</v>
+      </c>
+      <c r="E81" s="3">
         <v>324000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>321000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>311000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>281000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>331000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>326000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>308000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>251000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>266000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>224000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>165000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1116000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>308000</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>273000</v>
       </c>
       <c r="R81" s="3">
         <v>273000</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
+      <c r="S81" s="3">
+        <v>273000</v>
       </c>
       <c r="T81" s="3" t="s">
         <v>3</v>
@@ -4598,8 +4792,11 @@
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,28 +4818,29 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>46000</v>
+      </c>
+      <c r="E83" s="3">
         <v>48000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>49000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>48000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>51000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>50000</v>
-      </c>
-      <c r="I83" s="3">
-        <v>51000</v>
       </c>
       <c r="J83" s="3">
         <v>51000</v>
@@ -4651,17 +4849,17 @@
         <v>51000</v>
       </c>
       <c r="L83" s="3">
+        <v>51000</v>
+      </c>
+      <c r="M83" s="3">
         <v>48000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>49000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>43000</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4680,8 +4878,11 @@
       <c r="U83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4940,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5002,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5064,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5126,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,47 +5188,50 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>464000</v>
+      </c>
+      <c r="E89" s="3">
         <v>239000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>353000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>504000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>277000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>355000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>533000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>585000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>309000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>348000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>664000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>159000</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5034,8 +5250,11 @@
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,47 +5276,48 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-34000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-24000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-27000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-30000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-41000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-31000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-40000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-44000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-71000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-37000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-36000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-39000</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
@@ -5116,8 +5336,11 @@
       <c r="U91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5398,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,47 +5460,50 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-95000</v>
+      </c>
+      <c r="E94" s="3">
         <v>72000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>7000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-17000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-20000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-17000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-50000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-64000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-147000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-50000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-92000</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5293,8 +5522,11 @@
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,19 +5548,20 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-120000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-121000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-122000</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-102000</v>
       </c>
       <c r="G96" s="3">
         <v>-102000</v>
@@ -5340,17 +5573,17 @@
         <v>-102000</v>
       </c>
       <c r="J96" s="3">
-        <v>-87000</v>
+        <v>-102000</v>
       </c>
       <c r="K96" s="3">
         <v>-87000</v>
       </c>
       <c r="L96" s="3">
+        <v>-87000</v>
+      </c>
+      <c r="M96" s="3">
         <v>-86000</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
@@ -5375,8 +5608,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5670,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5732,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,47 +5794,50 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-250000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-465000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2114000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-823000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1679000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-705000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-342000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-574000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-255000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-409000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>76000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-256000</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5611,47 +5856,50 @@
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-69000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-59000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-63000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-32000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-19000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>25000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-17000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>59000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>33000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>17000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-50000</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P101" s="3" t="s">
         <v>3</v>
       </c>
@@ -5670,47 +5918,50 @@
       <c r="U101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>153000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-223000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1813000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-399000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1904000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-371000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>199000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-56000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>49000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-175000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>707000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-239000</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5727,6 +5978,9 @@
         <v>3</v>
       </c>
       <c r="U102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OTIS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OTIS_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,86 +665,87 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
-      </c>
-      <c r="R7" s="2">
-        <v>43555</v>
       </c>
       <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2" t="s">
-        <v>3</v>
+      <c r="T7" s="2">
+        <v>43555</v>
       </c>
       <c r="U7" s="2" t="s">
         <v>3</v>
@@ -752,61 +753,64 @@
       <c r="V7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>3346000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3439000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3344000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3488000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3414000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3569000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3620000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3701000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3408000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3493000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3268000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3029000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2966000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>13118000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3351000</v>
-      </c>
-      <c r="R8" s="3">
-        <v>3101000</v>
       </c>
       <c r="S8" s="3">
         <v>3101000</v>
       </c>
-      <c r="T8" s="3" t="s">
-        <v>3</v>
+      <c r="T8" s="3">
+        <v>3101000</v>
       </c>
       <c r="U8" s="3" t="s">
         <v>3</v>
@@ -814,61 +818,64 @@
       <c r="V8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>2350000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2479000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2373000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2505000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2408000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2530000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2560000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2626000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2389000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2481000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2289000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2138000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2069000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>9292000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2367000</v>
-      </c>
-      <c r="R9" s="3">
-        <v>2200000</v>
       </c>
       <c r="S9" s="3">
         <v>2200000</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>3</v>
+      <c r="T9" s="3">
+        <v>2200000</v>
       </c>
       <c r="U9" s="3" t="s">
         <v>3</v>
@@ -876,61 +883,64 @@
       <c r="V9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>996000</v>
+      </c>
+      <c r="E10" s="3">
         <v>960000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>971000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>983000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1006000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1039000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1060000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1075000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1019000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1012000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>979000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>891000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>897000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3826000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>984000</v>
-      </c>
-      <c r="R10" s="3">
-        <v>901000</v>
       </c>
       <c r="S10" s="3">
         <v>901000</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>3</v>
+      <c r="T10" s="3">
+        <v>901000</v>
       </c>
       <c r="U10" s="3" t="s">
         <v>3</v>
@@ -938,8 +948,11 @@
       <c r="V10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -962,61 +975,62 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>35000</v>
+      </c>
+      <c r="E12" s="3">
         <v>38000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>37000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>38000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>37000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>46000</v>
-      </c>
-      <c r="I12" s="3">
-        <v>39000</v>
       </c>
       <c r="J12" s="3">
         <v>39000</v>
       </c>
       <c r="K12" s="3">
+        <v>39000</v>
+      </c>
+      <c r="L12" s="3">
         <v>35000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>40000</v>
-      </c>
-      <c r="M12" s="3">
-        <v>37000</v>
       </c>
       <c r="N12" s="3">
         <v>37000</v>
       </c>
       <c r="O12" s="3">
+        <v>37000</v>
+      </c>
+      <c r="P12" s="3">
         <v>38000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>163000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>40000</v>
-      </c>
-      <c r="R12" s="3">
-        <v>39000</v>
       </c>
       <c r="S12" s="3">
         <v>39000</v>
       </c>
-      <c r="T12" s="3" t="s">
-        <v>3</v>
+      <c r="T12" s="3">
+        <v>39000</v>
       </c>
       <c r="U12" s="3" t="s">
         <v>3</v>
@@ -1024,8 +1038,11 @@
       <c r="V12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1086,61 +1103,64 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E14" s="3">
         <v>10000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>4000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>14000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>11000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>21000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>19000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>20000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>65000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>40000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>29000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>38000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>35000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>26000</v>
-      </c>
-      <c r="R14" s="3">
-        <v>17000</v>
       </c>
       <c r="S14" s="3">
         <v>17000</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>3</v>
+      <c r="T14" s="3">
+        <v>17000</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>3</v>
@@ -1148,8 +1168,11 @@
       <c r="V14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1210,8 +1233,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1231,61 +1257,62 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2833000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2948000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2815000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3001000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2888000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3073000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3078000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3140000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2899000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3053000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2814000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2613000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2637000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>11304000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2870000</v>
-      </c>
-      <c r="R17" s="3">
-        <v>2686000</v>
       </c>
       <c r="S17" s="3">
         <v>2686000</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>3</v>
+      <c r="T17" s="3">
+        <v>2686000</v>
       </c>
       <c r="U17" s="3" t="s">
         <v>3</v>
@@ -1293,61 +1320,64 @@
       <c r="V17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>513000</v>
+      </c>
+      <c r="E18" s="3">
         <v>491000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>529000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>487000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>526000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>496000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>542000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>561000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>509000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>440000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>454000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>416000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>329000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1814000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>481000</v>
-      </c>
-      <c r="R18" s="3">
-        <v>415000</v>
       </c>
       <c r="S18" s="3">
         <v>415000</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>3</v>
+      <c r="T18" s="3">
+        <v>415000</v>
       </c>
       <c r="U18" s="3" t="s">
         <v>3</v>
@@ -1355,8 +1385,11 @@
       <c r="V18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1379,13 +1412,14 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-36000</v>
+        <v>-33000</v>
       </c>
       <c r="E20" s="3">
         <v>-36000</v>
@@ -1394,46 +1428,46 @@
         <v>-36000</v>
       </c>
       <c r="G20" s="3">
+        <v>-36000</v>
+      </c>
+      <c r="H20" s="3">
         <v>-37000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-49000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-35000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-29000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-34000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-43000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-41000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-42000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>47000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>14000</v>
-      </c>
-      <c r="R20" s="3">
-        <v>10000</v>
       </c>
       <c r="S20" s="3">
         <v>10000</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>3</v>
+      <c r="T20" s="3">
+        <v>10000</v>
       </c>
       <c r="U20" s="3" t="s">
         <v>3</v>
@@ -1441,61 +1475,64 @@
       <c r="V20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>527000</v>
+      </c>
+      <c r="E21" s="3">
         <v>501000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>541000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>500000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>537000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>498000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>557000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>583000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>526000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>448000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>461000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>423000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>370000</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R21" s="3">
-        <v>470000</v>
+      <c r="R21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S21" s="3">
         <v>470000</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>3</v>
+      <c r="T21" s="3">
+        <v>470000</v>
       </c>
       <c r="U21" s="3" t="s">
         <v>3</v>
@@ -1503,8 +1540,11 @@
       <c r="V21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1559,67 +1599,70 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>3</v>
+      <c r="U22" s="3">
+        <v>0</v>
       </c>
       <c r="V22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>480000</v>
+      </c>
+      <c r="E23" s="3">
         <v>455000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>493000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>451000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>489000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>447000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>507000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>532000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>475000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>397000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>413000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>374000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>327000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1861000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>495000</v>
-      </c>
-      <c r="R23" s="3">
-        <v>425000</v>
       </c>
       <c r="S23" s="3">
         <v>425000</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>3</v>
+      <c r="T23" s="3">
+        <v>425000</v>
       </c>
       <c r="U23" s="3" t="s">
         <v>3</v>
@@ -1627,61 +1670,64 @@
       <c r="V23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>128000</v>
+      </c>
+      <c r="E24" s="3">
         <v>137000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>143000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>103000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>136000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>137000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>128000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>153000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>123000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>118000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>103000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>109000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>125000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>594000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>143000</v>
-      </c>
-      <c r="R24" s="3">
-        <v>125000</v>
       </c>
       <c r="S24" s="3">
         <v>125000</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>3</v>
+      <c r="T24" s="3">
+        <v>125000</v>
       </c>
       <c r="U24" s="3" t="s">
         <v>3</v>
@@ -1689,8 +1735,11 @@
       <c r="V24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1751,61 +1800,64 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>352000</v>
+      </c>
+      <c r="E26" s="3">
         <v>318000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>350000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>348000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>353000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>310000</v>
-      </c>
-      <c r="I26" s="3">
-        <v>379000</v>
       </c>
       <c r="J26" s="3">
         <v>379000</v>
       </c>
       <c r="K26" s="3">
+        <v>379000</v>
+      </c>
+      <c r="L26" s="3">
         <v>352000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>279000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>310000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>265000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>202000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1267000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>352000</v>
-      </c>
-      <c r="R26" s="3">
-        <v>300000</v>
       </c>
       <c r="S26" s="3">
         <v>300000</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>3</v>
+      <c r="T26" s="3">
+        <v>300000</v>
       </c>
       <c r="U26" s="3" t="s">
         <v>3</v>
@@ -1813,61 +1865,64 @@
       <c r="V26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>331000</v>
+      </c>
+      <c r="E27" s="3">
         <v>297000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>324000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>321000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>311000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>281000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>331000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>326000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>308000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>251000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>266000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>224000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>165000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1116000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>308000</v>
-      </c>
-      <c r="R27" s="3">
-        <v>273000</v>
       </c>
       <c r="S27" s="3">
         <v>273000</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>3</v>
+      <c r="T27" s="3">
+        <v>273000</v>
       </c>
       <c r="U27" s="3" t="s">
         <v>3</v>
@@ -1875,8 +1930,11 @@
       <c r="V27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1937,8 +1995,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1999,8 +2060,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2061,8 +2125,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2123,13 +2190,16 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>36000</v>
+        <v>33000</v>
       </c>
       <c r="E32" s="3">
         <v>36000</v>
@@ -2138,46 +2208,46 @@
         <v>36000</v>
       </c>
       <c r="G32" s="3">
+        <v>36000</v>
+      </c>
+      <c r="H32" s="3">
         <v>37000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>49000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>35000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>29000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>34000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>43000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>41000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>42000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-47000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-14000</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-10000</v>
       </c>
       <c r="S32" s="3">
         <v>-10000</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>3</v>
+      <c r="T32" s="3">
+        <v>-10000</v>
       </c>
       <c r="U32" s="3" t="s">
         <v>3</v>
@@ -2185,61 +2255,64 @@
       <c r="V32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>331000</v>
+      </c>
+      <c r="E33" s="3">
         <v>297000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>324000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>321000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>311000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>281000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>331000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>326000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>308000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>251000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>266000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>224000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>165000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1116000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>308000</v>
-      </c>
-      <c r="R33" s="3">
-        <v>273000</v>
       </c>
       <c r="S33" s="3">
         <v>273000</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>3</v>
+      <c r="T33" s="3">
+        <v>273000</v>
       </c>
       <c r="U33" s="3" t="s">
         <v>3</v>
@@ -2247,8 +2320,11 @@
       <c r="V33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2309,61 +2385,64 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>331000</v>
+      </c>
+      <c r="E35" s="3">
         <v>297000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>324000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>321000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>311000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>281000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>331000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>326000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>308000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>251000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>266000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>224000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>165000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1116000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>308000</v>
-      </c>
-      <c r="R35" s="3">
-        <v>273000</v>
       </c>
       <c r="S35" s="3">
         <v>273000</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>3</v>
+      <c r="T35" s="3">
+        <v>273000</v>
       </c>
       <c r="U35" s="3" t="s">
         <v>3</v>
@@ -2371,66 +2450,69 @@
       <c r="V35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
-      </c>
-      <c r="R38" s="2">
-        <v>43555</v>
       </c>
       <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2" t="s">
-        <v>3</v>
+      <c r="T38" s="2">
+        <v>43555</v>
       </c>
       <c r="U38" s="2" t="s">
         <v>3</v>
@@ -2438,8 +2520,11 @@
       <c r="V38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2462,8 +2547,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2486,50 +2572,51 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1117000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1189000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1034000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1218000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1235000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1565000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1553000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1923000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1725000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1782000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1733000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1912000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1207000</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2548,8 +2635,11 @@
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2610,50 +2700,53 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4074000</v>
+      </c>
+      <c r="E43" s="3">
         <v>4021000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3744000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3797000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3800000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3782000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3753000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3686000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3556000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3606000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3439000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3349000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3379000</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2672,50 +2765,53 @@
       <c r="V43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>642000</v>
+      </c>
+      <c r="E44" s="3">
         <v>617000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>603000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>596000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>626000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>622000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>628000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>673000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>686000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>659000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>667000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>629000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>599000</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2734,50 +2830,53 @@
       <c r="V44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>320000</v>
+      </c>
+      <c r="E45" s="3">
         <v>316000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>448000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>539000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2183000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2292000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>441000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>399000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>379000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>446000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>432000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>502000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>329000</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2796,50 +2895,53 @@
       <c r="V45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6153000</v>
+      </c>
+      <c r="E46" s="3">
         <v>6143000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>5829000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>6150000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>7844000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>8261000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>6375000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>6681000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6346000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6493000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6271000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6392000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5514000</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2858,50 +2960,53 @@
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>281000</v>
+      </c>
+      <c r="E47" s="3">
         <v>285000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>290000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>306000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>311000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>335000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>352000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>334000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>341000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>334000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>456000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>427000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>428000</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2920,50 +3025,53 @@
       <c r="V47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1187000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1168000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1156000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1236000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1299000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1300000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1328000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1352000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1313000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1316000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1269000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1234000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1223000</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2982,50 +3090,53 @@
       <c r="V48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1930000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1936000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1794000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1935000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2033000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2086000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2136000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2200000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2175000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2257000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2189000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2097000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2070000</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3044,8 +3155,11 @@
       <c r="V49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3106,8 +3220,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3168,50 +3285,53 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>294000</v>
+      </c>
+      <c r="E52" s="3">
         <v>287000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>273000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>286000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>308000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>297000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>281000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>290000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>330000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>310000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>288000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>291000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>289000</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3230,8 +3350,11 @@
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3292,50 +3415,53 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9845000</v>
+      </c>
+      <c r="E54" s="3">
         <v>9819000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>9342000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>9913000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>11795000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>12279000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>10472000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>10857000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10505000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10710000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10473000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>10441000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>9524000</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3354,8 +3480,11 @@
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3378,8 +3507,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3402,50 +3532,51 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1515000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1717000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1521000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1616000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1507000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1556000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1662000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1569000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1459000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1453000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1392000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1349000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1102000</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3464,50 +3595,53 @@
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>646000</v>
+      </c>
+      <c r="E58" s="3">
         <v>670000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>103000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>81000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>51000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>24000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>38000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>343000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>341000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>701000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>538000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>33000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>67000</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3526,50 +3660,53 @@
       <c r="V58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4662000</v>
+      </c>
+      <c r="E59" s="3">
         <v>4456000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4368000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4641000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4684000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4667000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4663000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4804000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4595000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4519000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4361000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4380000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4186000</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3588,50 +3725,53 @@
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6823000</v>
+      </c>
+      <c r="E60" s="3">
         <v>6843000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5992000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6338000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6242000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6247000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6363000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6716000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6395000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6673000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6291000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5762000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5355000</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3650,50 +3790,53 @@
       <c r="V60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6116000</v>
+      </c>
+      <c r="E61" s="3">
         <v>6098000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6459000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6602000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6694000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>7249000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5458000</v>
-      </c>
-      <c r="J61" s="3">
-        <v>5457000</v>
       </c>
       <c r="K61" s="3">
         <v>5457000</v>
       </c>
       <c r="L61" s="3">
+        <v>5457000</v>
+      </c>
+      <c r="M61" s="3">
         <v>5262000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5512000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>6260000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>6258000</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3712,50 +3855,53 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1544000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1542000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1624000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1725000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1800000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1767000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1884000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1938000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1939000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1976000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2053000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1995000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2100000</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3774,8 +3920,11 @@
       <c r="V62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3836,8 +3985,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3898,8 +4050,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3960,50 +4115,53 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>14702000</v>
+      </c>
+      <c r="E66" s="3">
         <v>14689000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>14255000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>14910000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>16824000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>15904000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>14326000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>14713000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>14415000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>14542000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>14497000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>14683000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>14345000</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4022,8 +4180,11 @@
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4046,8 +4207,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4108,8 +4270,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4170,8 +4335,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4232,8 +4400,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4294,47 +4465,50 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2653000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2865000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-3042000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-3245000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-3529000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2256000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2404000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-2633000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2855000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3076000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3241000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3418000</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4350,14 +4524,17 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U72" s="3">
-        <v>0</v>
+      <c r="U72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4418,8 +4595,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4480,8 +4660,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4542,50 +4725,53 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-4857000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-4870000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-4913000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-4997000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-5029000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-3625000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-3854000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-3856000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-3910000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-3832000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-4024000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-4242000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-4821000</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4604,8 +4790,11 @@
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4666,66 +4855,69 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
-      </c>
-      <c r="R80" s="2">
-        <v>43555</v>
       </c>
       <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2" t="s">
-        <v>3</v>
+      <c r="T80" s="2">
+        <v>43555</v>
       </c>
       <c r="U80" s="2" t="s">
         <v>3</v>
@@ -4733,61 +4925,64 @@
       <c r="V80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>331000</v>
+      </c>
+      <c r="E81" s="3">
         <v>297000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>324000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>321000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>311000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>281000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>331000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>326000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>308000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>251000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>266000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>224000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>165000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1116000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>308000</v>
-      </c>
-      <c r="R81" s="3">
-        <v>273000</v>
       </c>
       <c r="S81" s="3">
         <v>273000</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>3</v>
+      <c r="T81" s="3">
+        <v>273000</v>
       </c>
       <c r="U81" s="3" t="s">
         <v>3</v>
@@ -4795,8 +4990,11 @@
       <c r="V81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4819,31 +5017,32 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>47000</v>
+      </c>
+      <c r="E83" s="3">
         <v>46000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>48000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>49000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>48000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>51000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>50000</v>
-      </c>
-      <c r="J83" s="3">
-        <v>51000</v>
       </c>
       <c r="K83" s="3">
         <v>51000</v>
@@ -4852,17 +5051,17 @@
         <v>51000</v>
       </c>
       <c r="M83" s="3">
+        <v>51000</v>
+      </c>
+      <c r="N83" s="3">
         <v>48000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>49000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>43000</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4881,8 +5080,11 @@
       <c r="V83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4943,8 +5145,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5005,8 +5210,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5067,8 +5275,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5129,8 +5340,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5191,50 +5405,53 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>278000</v>
+      </c>
+      <c r="E89" s="3">
         <v>464000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>239000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>353000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>504000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>277000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>355000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>533000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>585000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>309000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>348000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>664000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>159000</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5253,8 +5470,11 @@
       <c r="V89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5277,50 +5497,51 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-34000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-24000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-27000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-30000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-41000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-31000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-40000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-44000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-71000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-37000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-36000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-39000</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
@@ -5339,8 +5560,11 @@
       <c r="V91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5401,8 +5625,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5463,50 +5690,53 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-95000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>72000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>7000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-17000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-20000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-17000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-50000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-64000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-147000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-50000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-92000</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5525,8 +5755,11 @@
       <c r="V94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5549,8 +5782,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5558,13 +5792,13 @@
         <v>-120000</v>
       </c>
       <c r="E96" s="3">
+        <v>-120000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-121000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-122000</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-102000</v>
       </c>
       <c r="H96" s="3">
         <v>-102000</v>
@@ -5576,17 +5810,17 @@
         <v>-102000</v>
       </c>
       <c r="K96" s="3">
-        <v>-87000</v>
+        <v>-102000</v>
       </c>
       <c r="L96" s="3">
         <v>-87000</v>
       </c>
       <c r="M96" s="3">
+        <v>-87000</v>
+      </c>
+      <c r="N96" s="3">
         <v>-86000</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
@@ -5611,8 +5845,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5673,8 +5910,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5735,8 +5975,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5797,50 +6040,53 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-341000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-250000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-465000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2114000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-823000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1679000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-705000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-342000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-574000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-255000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-409000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>76000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-256000</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5859,50 +6105,53 @@
       <c r="V100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E101" s="3">
         <v>34000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-69000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-59000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-63000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-32000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-19000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>25000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-17000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>59000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>33000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>17000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-50000</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q101" s="3" t="s">
         <v>3</v>
       </c>
@@ -5921,50 +6170,53 @@
       <c r="V101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-74000</v>
+      </c>
+      <c r="E102" s="3">
         <v>153000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-223000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1813000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-399000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1904000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-371000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>199000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-56000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>49000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-175000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>707000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-239000</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5981,6 +6233,9 @@
         <v>3</v>
       </c>
       <c r="V102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OTIS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OTIS_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,90 +665,91 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
-      </c>
-      <c r="S7" s="2">
-        <v>43555</v>
       </c>
       <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2" t="s">
-        <v>3</v>
+      <c r="U7" s="2">
+        <v>43555</v>
       </c>
       <c r="V7" s="2" t="s">
         <v>3</v>
@@ -756,64 +757,67 @@
       <c r="W7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>3720000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3346000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3439000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3344000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3488000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3414000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3569000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3620000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3701000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3408000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3493000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3268000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3029000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2966000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>13118000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3351000</v>
-      </c>
-      <c r="S8" s="3">
-        <v>3101000</v>
       </c>
       <c r="T8" s="3">
         <v>3101000</v>
       </c>
-      <c r="U8" s="3" t="s">
-        <v>3</v>
+      <c r="U8" s="3">
+        <v>3101000</v>
       </c>
       <c r="V8" s="3" t="s">
         <v>3</v>
@@ -821,64 +825,67 @@
       <c r="W8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>2637000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2350000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2479000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2373000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2505000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2408000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2530000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2560000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2626000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2389000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2481000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2289000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2138000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2069000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>9292000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2367000</v>
-      </c>
-      <c r="S9" s="3">
-        <v>2200000</v>
       </c>
       <c r="T9" s="3">
         <v>2200000</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>3</v>
+      <c r="U9" s="3">
+        <v>2200000</v>
       </c>
       <c r="V9" s="3" t="s">
         <v>3</v>
@@ -886,64 +893,67 @@
       <c r="W9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1083000</v>
+      </c>
+      <c r="E10" s="3">
         <v>996000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>960000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>971000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>983000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1006000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1039000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1060000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1075000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1019000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1012000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>979000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>891000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>897000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3826000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>984000</v>
-      </c>
-      <c r="S10" s="3">
-        <v>901000</v>
       </c>
       <c r="T10" s="3">
         <v>901000</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>3</v>
+      <c r="U10" s="3">
+        <v>901000</v>
       </c>
       <c r="V10" s="3" t="s">
         <v>3</v>
@@ -951,8 +961,11 @@
       <c r="W10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -976,64 +989,65 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E12" s="3">
         <v>35000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>38000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>37000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>38000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>37000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>46000</v>
-      </c>
-      <c r="J12" s="3">
-        <v>39000</v>
       </c>
       <c r="K12" s="3">
         <v>39000</v>
       </c>
       <c r="L12" s="3">
+        <v>39000</v>
+      </c>
+      <c r="M12" s="3">
         <v>35000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>40000</v>
-      </c>
-      <c r="N12" s="3">
-        <v>37000</v>
       </c>
       <c r="O12" s="3">
         <v>37000</v>
       </c>
       <c r="P12" s="3">
+        <v>37000</v>
+      </c>
+      <c r="Q12" s="3">
         <v>38000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>163000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>40000</v>
-      </c>
-      <c r="S12" s="3">
-        <v>39000</v>
       </c>
       <c r="T12" s="3">
         <v>39000</v>
       </c>
-      <c r="U12" s="3" t="s">
-        <v>3</v>
+      <c r="U12" s="3">
+        <v>39000</v>
       </c>
       <c r="V12" s="3" t="s">
         <v>3</v>
@@ -1041,8 +1055,11 @@
       <c r="W12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1106,64 +1123,67 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E14" s="3">
         <v>3000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>10000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>4000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>14000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>11000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>21000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>19000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>20000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>65000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>40000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>29000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>38000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>35000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>26000</v>
-      </c>
-      <c r="S14" s="3">
-        <v>17000</v>
       </c>
       <c r="T14" s="3">
         <v>17000</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>3</v>
+      <c r="U14" s="3">
+        <v>17000</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>3</v>
@@ -1171,8 +1191,11 @@
       <c r="W14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1236,8 +1259,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1258,64 +1284,65 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3140000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2833000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2948000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2815000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3001000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2888000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3073000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3078000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3140000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2899000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3053000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2814000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2613000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2637000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>11304000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2870000</v>
-      </c>
-      <c r="S17" s="3">
-        <v>2686000</v>
       </c>
       <c r="T17" s="3">
         <v>2686000</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>3</v>
+      <c r="U17" s="3">
+        <v>2686000</v>
       </c>
       <c r="V17" s="3" t="s">
         <v>3</v>
@@ -1323,64 +1350,67 @@
       <c r="W17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>580000</v>
+      </c>
+      <c r="E18" s="3">
         <v>513000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>491000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>529000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>487000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>526000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>496000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>542000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>561000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>509000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>440000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>454000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>416000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>329000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1814000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>481000</v>
-      </c>
-      <c r="S18" s="3">
-        <v>415000</v>
       </c>
       <c r="T18" s="3">
         <v>415000</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>3</v>
+      <c r="U18" s="3">
+        <v>415000</v>
       </c>
       <c r="V18" s="3" t="s">
         <v>3</v>
@@ -1388,8 +1418,11 @@
       <c r="W18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1413,16 +1446,17 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-38000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-33000</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-36000</v>
       </c>
       <c r="F20" s="3">
         <v>-36000</v>
@@ -1431,46 +1465,46 @@
         <v>-36000</v>
       </c>
       <c r="H20" s="3">
+        <v>-36000</v>
+      </c>
+      <c r="I20" s="3">
         <v>-37000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-49000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-35000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-29000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-34000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-43000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-41000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-42000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>47000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>14000</v>
-      </c>
-      <c r="S20" s="3">
-        <v>10000</v>
       </c>
       <c r="T20" s="3">
         <v>10000</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>3</v>
+      <c r="U20" s="3">
+        <v>10000</v>
       </c>
       <c r="V20" s="3" t="s">
         <v>3</v>
@@ -1478,64 +1512,67 @@
       <c r="W20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>594000</v>
+      </c>
+      <c r="E21" s="3">
         <v>527000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>501000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>541000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>500000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>537000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>498000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>557000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>583000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>526000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>448000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>461000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>423000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>370000</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S21" s="3">
-        <v>470000</v>
+      <c r="S21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T21" s="3">
         <v>470000</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>3</v>
+      <c r="U21" s="3">
+        <v>470000</v>
       </c>
       <c r="V21" s="3" t="s">
         <v>3</v>
@@ -1543,8 +1580,11 @@
       <c r="W21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1602,70 +1642,73 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>3</v>
+      <c r="V22" s="3">
+        <v>0</v>
       </c>
       <c r="W22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>542000</v>
+      </c>
+      <c r="E23" s="3">
         <v>480000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>455000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>493000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>451000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>489000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>447000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>507000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>532000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>475000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>397000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>413000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>374000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>327000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1861000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>495000</v>
-      </c>
-      <c r="S23" s="3">
-        <v>425000</v>
       </c>
       <c r="T23" s="3">
         <v>425000</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>3</v>
+      <c r="U23" s="3">
+        <v>425000</v>
       </c>
       <c r="V23" s="3" t="s">
         <v>3</v>
@@ -1673,64 +1716,67 @@
       <c r="W23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>135000</v>
+      </c>
+      <c r="E24" s="3">
         <v>128000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>137000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>143000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>103000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>136000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>137000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>128000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>153000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>123000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>118000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>103000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>109000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>125000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>594000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>143000</v>
-      </c>
-      <c r="S24" s="3">
-        <v>125000</v>
       </c>
       <c r="T24" s="3">
         <v>125000</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>3</v>
+      <c r="U24" s="3">
+        <v>125000</v>
       </c>
       <c r="V24" s="3" t="s">
         <v>3</v>
@@ -1738,8 +1784,11 @@
       <c r="W24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1803,64 +1852,67 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>407000</v>
+      </c>
+      <c r="E26" s="3">
         <v>352000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>318000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>350000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>348000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>353000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>310000</v>
-      </c>
-      <c r="J26" s="3">
-        <v>379000</v>
       </c>
       <c r="K26" s="3">
         <v>379000</v>
       </c>
       <c r="L26" s="3">
+        <v>379000</v>
+      </c>
+      <c r="M26" s="3">
         <v>352000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>279000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>310000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>265000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>202000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1267000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>352000</v>
-      </c>
-      <c r="S26" s="3">
-        <v>300000</v>
       </c>
       <c r="T26" s="3">
         <v>300000</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>3</v>
+      <c r="U26" s="3">
+        <v>300000</v>
       </c>
       <c r="V26" s="3" t="s">
         <v>3</v>
@@ -1868,64 +1920,67 @@
       <c r="W26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>376000</v>
+      </c>
+      <c r="E27" s="3">
         <v>331000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>297000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>324000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>321000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>311000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>281000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>331000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>326000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>308000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>251000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>266000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>224000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>165000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1116000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>308000</v>
-      </c>
-      <c r="S27" s="3">
-        <v>273000</v>
       </c>
       <c r="T27" s="3">
         <v>273000</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>3</v>
+      <c r="U27" s="3">
+        <v>273000</v>
       </c>
       <c r="V27" s="3" t="s">
         <v>3</v>
@@ -1933,8 +1988,11 @@
       <c r="W27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1998,8 +2056,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2063,8 +2124,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2128,8 +2192,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2193,16 +2260,19 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>38000</v>
+      </c>
+      <c r="E32" s="3">
         <v>33000</v>
-      </c>
-      <c r="E32" s="3">
-        <v>36000</v>
       </c>
       <c r="F32" s="3">
         <v>36000</v>
@@ -2211,46 +2281,46 @@
         <v>36000</v>
       </c>
       <c r="H32" s="3">
+        <v>36000</v>
+      </c>
+      <c r="I32" s="3">
         <v>37000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>49000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>35000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>29000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>34000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>43000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>41000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>42000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-47000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-14000</v>
-      </c>
-      <c r="S32" s="3">
-        <v>-10000</v>
       </c>
       <c r="T32" s="3">
         <v>-10000</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>3</v>
+      <c r="U32" s="3">
+        <v>-10000</v>
       </c>
       <c r="V32" s="3" t="s">
         <v>3</v>
@@ -2258,64 +2328,67 @@
       <c r="W32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>376000</v>
+      </c>
+      <c r="E33" s="3">
         <v>331000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>297000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>324000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>321000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>311000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>281000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>331000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>326000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>308000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>251000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>266000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>224000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>165000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1116000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>308000</v>
-      </c>
-      <c r="S33" s="3">
-        <v>273000</v>
       </c>
       <c r="T33" s="3">
         <v>273000</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>3</v>
+      <c r="U33" s="3">
+        <v>273000</v>
       </c>
       <c r="V33" s="3" t="s">
         <v>3</v>
@@ -2323,8 +2396,11 @@
       <c r="W33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2388,64 +2464,67 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>376000</v>
+      </c>
+      <c r="E35" s="3">
         <v>331000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>297000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>324000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>321000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>311000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>281000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>331000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>326000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>308000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>251000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>266000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>224000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>165000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1116000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>308000</v>
-      </c>
-      <c r="S35" s="3">
-        <v>273000</v>
       </c>
       <c r="T35" s="3">
         <v>273000</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>3</v>
+      <c r="U35" s="3">
+        <v>273000</v>
       </c>
       <c r="V35" s="3" t="s">
         <v>3</v>
@@ -2453,69 +2532,72 @@
       <c r="W35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
-      </c>
-      <c r="S38" s="2">
-        <v>43555</v>
       </c>
       <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2" t="s">
-        <v>3</v>
+      <c r="U38" s="2">
+        <v>43555</v>
       </c>
       <c r="V38" s="2" t="s">
         <v>3</v>
@@ -2523,8 +2605,11 @@
       <c r="W38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2548,8 +2633,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2573,53 +2659,54 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1219000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1117000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1189000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1034000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1218000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1235000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1565000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1553000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1923000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1725000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1782000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1733000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1912000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1207000</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2638,8 +2725,11 @@
       <c r="W41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2703,53 +2793,56 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4232000</v>
+      </c>
+      <c r="E43" s="3">
         <v>4074000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4021000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3744000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3797000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3800000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3782000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3753000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3686000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3556000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3606000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3439000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3349000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3379000</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2768,53 +2861,56 @@
       <c r="W43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>640000</v>
+      </c>
+      <c r="E44" s="3">
         <v>642000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>617000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>603000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>596000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>626000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>622000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>628000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>673000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>686000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>659000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>667000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>629000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>599000</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2833,53 +2929,56 @@
       <c r="W44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>326000</v>
+      </c>
+      <c r="E45" s="3">
         <v>320000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>316000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>448000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>539000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2183000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2292000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>441000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>399000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>379000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>446000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>432000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>502000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>329000</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2898,53 +2997,56 @@
       <c r="W45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6417000</v>
+      </c>
+      <c r="E46" s="3">
         <v>6153000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>6143000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5829000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>6150000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>7844000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>8261000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>6375000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6681000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6346000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6493000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6271000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6392000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5514000</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2963,53 +3065,56 @@
       <c r="W46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>284000</v>
+      </c>
+      <c r="E47" s="3">
         <v>281000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>285000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>290000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>306000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>311000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>335000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>352000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>334000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>341000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>334000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>456000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>427000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>428000</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3028,53 +3133,56 @@
       <c r="W47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1153000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1187000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1168000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1156000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1236000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1299000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1300000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1328000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1352000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1313000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1316000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1269000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1234000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1223000</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3093,53 +3201,56 @@
       <c r="W48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1934000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1930000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1936000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1794000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1935000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2033000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2086000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2136000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2200000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2175000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2257000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2189000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2097000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2070000</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3158,8 +3269,11 @@
       <c r="W49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3223,8 +3337,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3288,53 +3405,56 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>347000</v>
+      </c>
+      <c r="E52" s="3">
         <v>294000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>287000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>273000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>286000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>308000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>297000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>281000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>290000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>330000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>310000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>288000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>291000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>289000</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3353,8 +3473,11 @@
       <c r="W52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3418,53 +3541,56 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10135000</v>
+      </c>
+      <c r="E54" s="3">
         <v>9845000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>9819000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>9342000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>9913000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>11795000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>12279000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>10472000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10857000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10505000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10710000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>10473000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>10441000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>9524000</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3483,8 +3609,11 @@
       <c r="W54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3508,8 +3637,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3533,53 +3663,54 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1744000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1515000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1717000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1521000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1616000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1507000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1556000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1662000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1569000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1459000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1453000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1392000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1349000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1102000</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3598,53 +3729,56 @@
       <c r="W57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>746000</v>
+      </c>
+      <c r="E58" s="3">
         <v>646000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>670000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>103000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>81000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>51000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>24000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>38000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>343000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>341000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>701000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>538000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>33000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>67000</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3663,53 +3797,56 @@
       <c r="W58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4668000</v>
+      </c>
+      <c r="E59" s="3">
         <v>4662000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4456000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4368000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4641000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4684000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4667000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4663000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4804000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4595000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4519000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4361000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4380000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4186000</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3728,53 +3865,56 @@
       <c r="W59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7158000</v>
+      </c>
+      <c r="E60" s="3">
         <v>6823000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6843000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5992000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6338000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6242000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6247000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6363000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6716000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6395000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6673000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6291000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5762000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5355000</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3793,53 +3933,56 @@
       <c r="W60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6117000</v>
+      </c>
+      <c r="E61" s="3">
         <v>6116000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6098000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6459000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6602000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6694000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>7249000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5458000</v>
-      </c>
-      <c r="K61" s="3">
-        <v>5457000</v>
       </c>
       <c r="L61" s="3">
         <v>5457000</v>
       </c>
       <c r="M61" s="3">
+        <v>5457000</v>
+      </c>
+      <c r="N61" s="3">
         <v>5262000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5512000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>6260000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>6258000</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -3858,53 +4001,56 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1485000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1544000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1542000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1624000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1725000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1800000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1767000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1884000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1938000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1939000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1976000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2053000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1995000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2100000</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3923,8 +4069,11 @@
       <c r="W62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3988,8 +4137,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4053,8 +4205,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4118,53 +4273,56 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>14987000</v>
+      </c>
+      <c r="E66" s="3">
         <v>14702000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>14689000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>14255000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>14910000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>16824000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>15904000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>14326000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>14713000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>14415000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>14542000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>14497000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>14683000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>14345000</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4183,8 +4341,11 @@
       <c r="W66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4208,8 +4369,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4273,8 +4435,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4338,8 +4503,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4403,8 +4571,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4468,50 +4639,53 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2419000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2653000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2865000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-3042000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-3245000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-3529000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2256000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-2404000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2633000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2855000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3076000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3241000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-3418000</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4527,14 +4701,17 @@
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V72" s="3">
-        <v>0</v>
+      <c r="V72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4598,8 +4775,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4663,8 +4843,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4728,53 +4911,56 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-4852000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-4857000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-4870000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-4913000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-4997000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-5029000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-3625000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-3854000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-3856000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-3910000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-3832000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-4024000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-4242000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-4821000</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4793,8 +4979,11 @@
       <c r="W76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4858,69 +5047,72 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
-      </c>
-      <c r="S80" s="2">
-        <v>43555</v>
       </c>
       <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2" t="s">
-        <v>3</v>
+      <c r="U80" s="2">
+        <v>43555</v>
       </c>
       <c r="V80" s="2" t="s">
         <v>3</v>
@@ -4928,64 +5120,67 @@
       <c r="W80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>376000</v>
+      </c>
+      <c r="E81" s="3">
         <v>331000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>297000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>324000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>321000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>311000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>281000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>331000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>326000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>308000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>251000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>266000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>224000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>165000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1116000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>308000</v>
-      </c>
-      <c r="S81" s="3">
-        <v>273000</v>
       </c>
       <c r="T81" s="3">
         <v>273000</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>3</v>
+      <c r="U81" s="3">
+        <v>273000</v>
       </c>
       <c r="V81" s="3" t="s">
         <v>3</v>
@@ -4993,8 +5188,11 @@
       <c r="W81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5018,34 +5216,35 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>52000</v>
+      </c>
+      <c r="E83" s="3">
         <v>47000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>46000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>48000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>49000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>48000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>51000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>50000</v>
-      </c>
-      <c r="K83" s="3">
-        <v>51000</v>
       </c>
       <c r="L83" s="3">
         <v>51000</v>
@@ -5054,17 +5253,17 @@
         <v>51000</v>
       </c>
       <c r="N83" s="3">
+        <v>51000</v>
+      </c>
+      <c r="O83" s="3">
         <v>48000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>49000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>43000</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
@@ -5083,8 +5282,11 @@
       <c r="W83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5148,8 +5350,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5213,8 +5418,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5278,8 +5486,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5343,8 +5554,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5408,53 +5622,56 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>446000</v>
+      </c>
+      <c r="E89" s="3">
         <v>278000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>464000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>239000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>353000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>504000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>277000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>355000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>533000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>585000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>309000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>348000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>664000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>159000</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5473,8 +5690,11 @@
       <c r="W89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5498,53 +5718,54 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-37000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-25000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-34000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-24000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-27000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-30000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-41000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-31000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-40000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-44000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-71000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-37000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-36000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-39000</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
@@ -5563,8 +5784,11 @@
       <c r="W91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5628,8 +5852,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5693,53 +5920,56 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-70000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-21000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-95000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>72000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>7000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-17000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-20000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-17000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-50000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-64000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-147000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-50000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-92000</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5758,8 +5988,11 @@
       <c r="W94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5783,25 +6016,26 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-120000</v>
+        <v>-141000</v>
       </c>
       <c r="E96" s="3">
         <v>-120000</v>
       </c>
       <c r="F96" s="3">
+        <v>-120000</v>
+      </c>
+      <c r="G96" s="3">
         <v>-121000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-122000</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-102000</v>
       </c>
       <c r="I96" s="3">
         <v>-102000</v>
@@ -5813,17 +6047,17 @@
         <v>-102000</v>
       </c>
       <c r="L96" s="3">
-        <v>-87000</v>
+        <v>-102000</v>
       </c>
       <c r="M96" s="3">
         <v>-87000</v>
       </c>
       <c r="N96" s="3">
+        <v>-87000</v>
+      </c>
+      <c r="O96" s="3">
         <v>-86000</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
@@ -5848,8 +6082,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5913,8 +6150,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5978,8 +6218,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6043,53 +6286,56 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-244000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-341000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-250000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-465000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2114000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-823000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1679000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-705000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-342000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-574000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-255000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-409000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>76000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-256000</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
@@ -6108,53 +6354,56 @@
       <c r="W100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="E101" s="3">
         <v>10000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>34000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-69000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-59000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-63000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-32000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-19000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>25000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-17000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>59000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>33000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>17000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-50000</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R101" s="3" t="s">
         <v>3</v>
       </c>
@@ -6173,53 +6422,56 @@
       <c r="W101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>106000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-74000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>153000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-223000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1813000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-399000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1904000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-371000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>199000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-56000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>49000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-175000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>707000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-239000</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
@@ -6236,6 +6488,9 @@
         <v>3</v>
       </c>
       <c r="W102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OTIS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OTIS_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,94 +665,95 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
-      </c>
-      <c r="T7" s="2">
-        <v>43555</v>
       </c>
       <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2" t="s">
-        <v>3</v>
+      <c r="V7" s="2">
+        <v>43555</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>3</v>
@@ -760,67 +761,70 @@
       <c r="X7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>3523000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3720000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3346000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3439000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3344000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3488000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3414000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3569000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3620000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3701000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3408000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3493000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3268000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3029000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2966000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>13118000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3351000</v>
-      </c>
-      <c r="T8" s="3">
-        <v>3101000</v>
       </c>
       <c r="U8" s="3">
         <v>3101000</v>
       </c>
-      <c r="V8" s="3" t="s">
-        <v>3</v>
+      <c r="V8" s="3">
+        <v>3101000</v>
       </c>
       <c r="W8" s="3" t="s">
         <v>3</v>
@@ -828,67 +832,70 @@
       <c r="X8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>2477000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2637000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2350000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2479000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2373000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2505000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2408000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2530000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2560000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2626000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2389000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2481000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2289000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2138000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2069000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>9292000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2367000</v>
-      </c>
-      <c r="T9" s="3">
-        <v>2200000</v>
       </c>
       <c r="U9" s="3">
         <v>2200000</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>3</v>
+      <c r="V9" s="3">
+        <v>2200000</v>
       </c>
       <c r="W9" s="3" t="s">
         <v>3</v>
@@ -896,67 +903,70 @@
       <c r="X9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1046000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1083000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>996000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>960000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>971000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>983000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1006000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1039000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1060000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1075000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1019000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1012000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>979000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>891000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>897000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3826000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>984000</v>
-      </c>
-      <c r="T10" s="3">
-        <v>901000</v>
       </c>
       <c r="U10" s="3">
         <v>901000</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>3</v>
+      <c r="V10" s="3">
+        <v>901000</v>
       </c>
       <c r="W10" s="3" t="s">
         <v>3</v>
@@ -964,8 +974,11 @@
       <c r="X10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -990,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -999,58 +1013,58 @@
         <v>36000</v>
       </c>
       <c r="E12" s="3">
+        <v>36000</v>
+      </c>
+      <c r="F12" s="3">
         <v>35000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>38000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>37000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>38000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>37000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>46000</v>
-      </c>
-      <c r="K12" s="3">
-        <v>39000</v>
       </c>
       <c r="L12" s="3">
         <v>39000</v>
       </c>
       <c r="M12" s="3">
+        <v>39000</v>
+      </c>
+      <c r="N12" s="3">
         <v>35000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>40000</v>
-      </c>
-      <c r="O12" s="3">
-        <v>37000</v>
       </c>
       <c r="P12" s="3">
         <v>37000</v>
       </c>
       <c r="Q12" s="3">
+        <v>37000</v>
+      </c>
+      <c r="R12" s="3">
         <v>38000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>163000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>40000</v>
-      </c>
-      <c r="T12" s="3">
-        <v>39000</v>
       </c>
       <c r="U12" s="3">
         <v>39000</v>
       </c>
-      <c r="V12" s="3" t="s">
-        <v>3</v>
+      <c r="V12" s="3">
+        <v>39000</v>
       </c>
       <c r="W12" s="3" t="s">
         <v>3</v>
@@ -1058,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1126,67 +1143,70 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E14" s="3">
         <v>10000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>3000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>10000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>4000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>14000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>11000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>21000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>19000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>20000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>65000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>40000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>29000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>38000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>35000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>26000</v>
-      </c>
-      <c r="T14" s="3">
-        <v>17000</v>
       </c>
       <c r="U14" s="3">
         <v>17000</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>3</v>
+      <c r="V14" s="3">
+        <v>17000</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>3</v>
@@ -1194,8 +1214,11 @@
       <c r="X14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1262,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1285,67 +1311,68 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2952000</v>
+      </c>
+      <c r="E17" s="3">
         <v>3140000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2833000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2948000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2815000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3001000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2888000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3073000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3078000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3140000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2899000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3053000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2814000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2613000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2637000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>11304000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2870000</v>
-      </c>
-      <c r="T17" s="3">
-        <v>2686000</v>
       </c>
       <c r="U17" s="3">
         <v>2686000</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>3</v>
+      <c r="V17" s="3">
+        <v>2686000</v>
       </c>
       <c r="W17" s="3" t="s">
         <v>3</v>
@@ -1353,67 +1380,70 @@
       <c r="X17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>571000</v>
+      </c>
+      <c r="E18" s="3">
         <v>580000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>513000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>491000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>529000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>487000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>526000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>496000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>542000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>561000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>509000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>440000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>454000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>416000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>329000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1814000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>481000</v>
-      </c>
-      <c r="T18" s="3">
-        <v>415000</v>
       </c>
       <c r="U18" s="3">
         <v>415000</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>3</v>
+      <c r="V18" s="3">
+        <v>415000</v>
       </c>
       <c r="W18" s="3" t="s">
         <v>3</v>
@@ -1421,8 +1451,11 @@
       <c r="X18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1447,19 +1480,20 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-39000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-38000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-33000</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-36000</v>
       </c>
       <c r="G20" s="3">
         <v>-36000</v>
@@ -1468,46 +1502,46 @@
         <v>-36000</v>
       </c>
       <c r="I20" s="3">
+        <v>-36000</v>
+      </c>
+      <c r="J20" s="3">
         <v>-37000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-49000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-35000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-29000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-34000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-43000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-41000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-42000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>47000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>14000</v>
-      </c>
-      <c r="T20" s="3">
-        <v>10000</v>
       </c>
       <c r="U20" s="3">
         <v>10000</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>3</v>
+      <c r="V20" s="3">
+        <v>10000</v>
       </c>
       <c r="W20" s="3" t="s">
         <v>3</v>
@@ -1515,67 +1549,70 @@
       <c r="X20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>578000</v>
+      </c>
+      <c r="E21" s="3">
         <v>594000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>527000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>501000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>541000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>500000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>537000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>498000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>557000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>583000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>526000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>448000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>461000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>423000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>370000</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T21" s="3">
-        <v>470000</v>
+      <c r="T21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U21" s="3">
         <v>470000</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>3</v>
+      <c r="V21" s="3">
+        <v>470000</v>
       </c>
       <c r="W21" s="3" t="s">
         <v>3</v>
@@ -1583,8 +1620,11 @@
       <c r="X21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1645,73 +1685,76 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-      <c r="W22" s="3" t="s">
-        <v>3</v>
+      <c r="W22" s="3">
+        <v>0</v>
       </c>
       <c r="X22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>532000</v>
+      </c>
+      <c r="E23" s="3">
         <v>542000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>480000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>455000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>493000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>451000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>489000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>447000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>507000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>532000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>475000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>397000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>413000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>374000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>327000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1861000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>495000</v>
-      </c>
-      <c r="T23" s="3">
-        <v>425000</v>
       </c>
       <c r="U23" s="3">
         <v>425000</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>3</v>
+      <c r="V23" s="3">
+        <v>425000</v>
       </c>
       <c r="W23" s="3" t="s">
         <v>3</v>
@@ -1719,67 +1762,70 @@
       <c r="X23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>137000</v>
+      </c>
+      <c r="E24" s="3">
         <v>135000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>128000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>137000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>143000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>103000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>136000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>137000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>128000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>153000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>123000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>118000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>103000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>109000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>125000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>594000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>143000</v>
-      </c>
-      <c r="T24" s="3">
-        <v>125000</v>
       </c>
       <c r="U24" s="3">
         <v>125000</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>3</v>
+      <c r="V24" s="3">
+        <v>125000</v>
       </c>
       <c r="W24" s="3" t="s">
         <v>3</v>
@@ -1787,8 +1833,11 @@
       <c r="X24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1855,67 +1904,70 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>395000</v>
+      </c>
+      <c r="E26" s="3">
         <v>407000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>352000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>318000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>350000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>348000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>353000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>310000</v>
-      </c>
-      <c r="K26" s="3">
-        <v>379000</v>
       </c>
       <c r="L26" s="3">
         <v>379000</v>
       </c>
       <c r="M26" s="3">
+        <v>379000</v>
+      </c>
+      <c r="N26" s="3">
         <v>352000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>279000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>310000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>265000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>202000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1267000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>352000</v>
-      </c>
-      <c r="T26" s="3">
-        <v>300000</v>
       </c>
       <c r="U26" s="3">
         <v>300000</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>3</v>
+      <c r="V26" s="3">
+        <v>300000</v>
       </c>
       <c r="W26" s="3" t="s">
         <v>3</v>
@@ -1923,8 +1975,11 @@
       <c r="X26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1932,58 +1987,58 @@
         <v>376000</v>
       </c>
       <c r="E27" s="3">
+        <v>376000</v>
+      </c>
+      <c r="F27" s="3">
         <v>331000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>297000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>324000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>321000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>311000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>281000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>331000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>326000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>308000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>251000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>266000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>224000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>165000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1116000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>308000</v>
-      </c>
-      <c r="T27" s="3">
-        <v>273000</v>
       </c>
       <c r="U27" s="3">
         <v>273000</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>3</v>
+      <c r="V27" s="3">
+        <v>273000</v>
       </c>
       <c r="W27" s="3" t="s">
         <v>3</v>
@@ -1991,8 +2046,11 @@
       <c r="X27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2059,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2127,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2195,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2263,19 +2330,22 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>39000</v>
+      </c>
+      <c r="E32" s="3">
         <v>38000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>33000</v>
-      </c>
-      <c r="F32" s="3">
-        <v>36000</v>
       </c>
       <c r="G32" s="3">
         <v>36000</v>
@@ -2284,46 +2354,46 @@
         <v>36000</v>
       </c>
       <c r="I32" s="3">
+        <v>36000</v>
+      </c>
+      <c r="J32" s="3">
         <v>37000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>49000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>35000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>29000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>34000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>43000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>41000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>42000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-47000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-14000</v>
-      </c>
-      <c r="T32" s="3">
-        <v>-10000</v>
       </c>
       <c r="U32" s="3">
         <v>-10000</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>3</v>
+      <c r="V32" s="3">
+        <v>-10000</v>
       </c>
       <c r="W32" s="3" t="s">
         <v>3</v>
@@ -2331,8 +2401,11 @@
       <c r="X32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2340,58 +2413,58 @@
         <v>376000</v>
       </c>
       <c r="E33" s="3">
+        <v>376000</v>
+      </c>
+      <c r="F33" s="3">
         <v>331000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>297000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>324000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>321000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>311000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>281000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>331000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>326000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>308000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>251000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>266000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>224000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>165000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1116000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>308000</v>
-      </c>
-      <c r="T33" s="3">
-        <v>273000</v>
       </c>
       <c r="U33" s="3">
         <v>273000</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>3</v>
+      <c r="V33" s="3">
+        <v>273000</v>
       </c>
       <c r="W33" s="3" t="s">
         <v>3</v>
@@ -2399,8 +2472,11 @@
       <c r="X33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2467,8 +2543,11 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2476,58 +2555,58 @@
         <v>376000</v>
       </c>
       <c r="E35" s="3">
+        <v>376000</v>
+      </c>
+      <c r="F35" s="3">
         <v>331000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>297000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>324000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>321000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>311000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>281000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>331000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>326000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>308000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>251000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>266000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>224000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>165000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1116000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>308000</v>
-      </c>
-      <c r="T35" s="3">
-        <v>273000</v>
       </c>
       <c r="U35" s="3">
         <v>273000</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>3</v>
+      <c r="V35" s="3">
+        <v>273000</v>
       </c>
       <c r="W35" s="3" t="s">
         <v>3</v>
@@ -2535,72 +2614,75 @@
       <c r="X35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
-      </c>
-      <c r="T38" s="2">
-        <v>43555</v>
       </c>
       <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2" t="s">
-        <v>3</v>
+      <c r="V38" s="2">
+        <v>43555</v>
       </c>
       <c r="W38" s="2" t="s">
         <v>3</v>
@@ -2608,8 +2690,11 @@
       <c r="X38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2634,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2660,56 +2746,57 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1636000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1219000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1117000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1189000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1034000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1218000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1235000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1565000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1553000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1923000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1725000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1782000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1733000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1912000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1207000</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2728,8 +2815,11 @@
       <c r="X41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2796,56 +2886,59 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4188000</v>
+      </c>
+      <c r="E43" s="3">
         <v>4232000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4074000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4021000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3744000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3797000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3800000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3782000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3753000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3686000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3556000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3606000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3439000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3349000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3379000</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2864,56 +2957,59 @@
       <c r="X43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>624000</v>
+      </c>
+      <c r="E44" s="3">
         <v>640000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>642000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>617000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>603000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>596000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>626000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>622000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>628000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>673000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>686000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>659000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>667000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>629000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>599000</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2932,56 +3028,59 @@
       <c r="X44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>301000</v>
+      </c>
+      <c r="E45" s="3">
         <v>326000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>320000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>316000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>448000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>539000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2183000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2292000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>441000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>399000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>379000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>446000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>432000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>502000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>329000</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3000,56 +3099,59 @@
       <c r="X45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6749000</v>
+      </c>
+      <c r="E46" s="3">
         <v>6417000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>6153000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>6143000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5829000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>6150000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>7844000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>8261000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6375000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6681000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6346000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6493000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6271000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>6392000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5514000</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3068,56 +3170,59 @@
       <c r="X46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>290000</v>
+      </c>
+      <c r="E47" s="3">
         <v>284000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>281000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>285000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>290000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>306000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>311000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>335000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>352000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>334000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>341000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>334000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>456000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>427000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>428000</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3136,56 +3241,59 @@
       <c r="X47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1125000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1153000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1187000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1168000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1156000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1236000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1299000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1300000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1328000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1352000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1313000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1316000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1269000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1234000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1223000</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3204,56 +3312,59 @@
       <c r="X48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1883000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1934000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1930000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1936000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1794000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1935000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2033000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2086000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2136000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2200000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2175000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2257000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2189000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2097000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2070000</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3272,8 +3383,11 @@
       <c r="X49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3340,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3408,56 +3525,59 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>343000</v>
+      </c>
+      <c r="E52" s="3">
         <v>347000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>294000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>287000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>273000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>286000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>308000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>297000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>281000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>290000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>330000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>310000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>288000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>291000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>289000</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3476,8 +3596,11 @@
       <c r="X52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3544,56 +3667,59 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10390000</v>
+      </c>
+      <c r="E54" s="3">
         <v>10135000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>9845000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>9819000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>9342000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>9913000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>11795000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>12279000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10472000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10857000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10505000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>10710000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>10473000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>10441000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>9524000</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3612,8 +3738,11 @@
       <c r="X54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3638,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3664,56 +3794,57 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1655000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1744000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1515000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1717000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1521000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1616000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1507000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1556000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1662000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1569000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1459000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1453000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1392000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1349000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1102000</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3732,56 +3863,59 @@
       <c r="X57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>585000</v>
+      </c>
+      <c r="E58" s="3">
         <v>746000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>646000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>670000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>103000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>81000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>51000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>24000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>38000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>343000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>341000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>701000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>538000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>33000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>67000</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3800,56 +3934,59 @@
       <c r="X58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4509000</v>
+      </c>
+      <c r="E59" s="3">
         <v>4668000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4662000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4456000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4368000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4641000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4684000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4667000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4663000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4804000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4595000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4519000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4361000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4380000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4186000</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3868,56 +4005,59 @@
       <c r="X59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6749000</v>
+      </c>
+      <c r="E60" s="3">
         <v>7158000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6823000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6843000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5992000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6338000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6242000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6247000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6363000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6716000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6395000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6673000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6291000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5762000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5355000</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3936,56 +4076,59 @@
       <c r="X60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6822000</v>
+      </c>
+      <c r="E61" s="3">
         <v>6117000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6116000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6098000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6459000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6602000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>6694000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>7249000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5458000</v>
-      </c>
-      <c r="L61" s="3">
-        <v>5457000</v>
       </c>
       <c r="M61" s="3">
         <v>5457000</v>
       </c>
       <c r="N61" s="3">
+        <v>5457000</v>
+      </c>
+      <c r="O61" s="3">
         <v>5262000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5512000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>6260000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>6258000</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -4004,56 +4147,59 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1429000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1485000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1544000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1542000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1624000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1725000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1800000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1767000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1884000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1938000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1939000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1976000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2053000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1995000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2100000</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4072,8 +4218,11 @@
       <c r="X62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4140,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4208,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4276,56 +4431,59 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>15178000</v>
+      </c>
+      <c r="E66" s="3">
         <v>14987000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>14702000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>14689000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>14255000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>14910000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>16824000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>15904000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>14326000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>14713000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>14415000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>14542000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>14497000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>14683000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>14345000</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4344,8 +4502,11 @@
       <c r="X66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4370,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4438,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4506,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4574,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4642,53 +4813,56 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2183000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2419000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2653000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2865000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-3042000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-3245000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-3529000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-2256000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2404000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2633000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2855000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3076000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-3241000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-3418000</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4704,14 +4878,17 @@
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W72" s="3">
-        <v>0</v>
+      <c r="W72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="X72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4778,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4846,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4914,56 +5097,59 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-4788000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-4852000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-4857000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-4870000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-4913000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-4997000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-5029000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-3625000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-3854000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-3856000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-3910000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-3832000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-4024000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-4242000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-4821000</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4982,8 +5168,11 @@
       <c r="X76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5050,72 +5239,75 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
-      </c>
-      <c r="T80" s="2">
-        <v>43555</v>
       </c>
       <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2" t="s">
-        <v>3</v>
+      <c r="V80" s="2">
+        <v>43555</v>
       </c>
       <c r="W80" s="2" t="s">
         <v>3</v>
@@ -5123,8 +5315,11 @@
       <c r="X80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5132,58 +5327,58 @@
         <v>376000</v>
       </c>
       <c r="E81" s="3">
+        <v>376000</v>
+      </c>
+      <c r="F81" s="3">
         <v>331000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>297000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>324000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>321000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>311000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>281000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>331000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>326000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>308000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>251000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>266000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>224000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>165000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1116000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>308000</v>
-      </c>
-      <c r="T81" s="3">
-        <v>273000</v>
       </c>
       <c r="U81" s="3">
         <v>273000</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>3</v>
+      <c r="V81" s="3">
+        <v>273000</v>
       </c>
       <c r="W81" s="3" t="s">
         <v>3</v>
@@ -5191,8 +5386,11 @@
       <c r="X81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5217,37 +5415,38 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>46000</v>
+      </c>
+      <c r="E83" s="3">
         <v>52000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>47000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>46000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>48000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>49000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>48000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>51000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>50000</v>
-      </c>
-      <c r="L83" s="3">
-        <v>51000</v>
       </c>
       <c r="M83" s="3">
         <v>51000</v>
@@ -5256,17 +5455,17 @@
         <v>51000</v>
       </c>
       <c r="O83" s="3">
+        <v>51000</v>
+      </c>
+      <c r="P83" s="3">
         <v>48000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>49000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>43000</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
@@ -5285,8 +5484,11 @@
       <c r="X83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5353,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5421,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5489,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5557,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5625,56 +5839,59 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>306000</v>
+      </c>
+      <c r="E89" s="3">
         <v>446000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>278000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>464000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>239000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>353000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>504000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>277000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>355000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>533000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>585000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>309000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>348000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>664000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>159000</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5693,8 +5910,11 @@
       <c r="X89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5719,56 +5939,57 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-34000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-37000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-25000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-34000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-24000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-27000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-30000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-41000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-31000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-40000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-44000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-71000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-37000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-36000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-39000</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
@@ -5787,8 +6008,11 @@
       <c r="X91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5855,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5923,56 +6150,59 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-41000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-70000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-21000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-95000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>72000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>7000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-17000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-20000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-17000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-50000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-64000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-147000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-50000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-92000</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5991,8 +6221,11 @@
       <c r="X94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6017,28 +6250,29 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-139000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-141000</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-120000</v>
       </c>
       <c r="F96" s="3">
         <v>-120000</v>
       </c>
       <c r="G96" s="3">
+        <v>-120000</v>
+      </c>
+      <c r="H96" s="3">
         <v>-121000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-122000</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-102000</v>
       </c>
       <c r="J96" s="3">
         <v>-102000</v>
@@ -6050,17 +6284,17 @@
         <v>-102000</v>
       </c>
       <c r="M96" s="3">
-        <v>-87000</v>
+        <v>-102000</v>
       </c>
       <c r="N96" s="3">
         <v>-87000</v>
       </c>
       <c r="O96" s="3">
+        <v>-87000</v>
+      </c>
+      <c r="P96" s="3">
         <v>-86000</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
@@ -6085,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6153,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6221,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6289,56 +6532,59 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>167000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-244000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-341000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-250000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-465000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2114000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-823000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1679000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-705000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-342000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-574000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-255000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-409000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>76000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-256000</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
@@ -6357,56 +6603,59 @@
       <c r="X100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-26000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>10000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>34000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-69000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-59000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-63000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-32000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-19000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>25000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-17000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>59000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>33000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>17000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-50000</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S101" s="3" t="s">
         <v>3</v>
       </c>
@@ -6425,56 +6674,59 @@
       <c r="X101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>414000</v>
+      </c>
+      <c r="E102" s="3">
         <v>106000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-74000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>153000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-223000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1813000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-399000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1904000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-371000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>199000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-56000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>49000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-175000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>707000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-239000</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
@@ -6491,6 +6743,9 @@
         <v>3</v>
       </c>
       <c r="X102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
